--- a/backend/fms_core/static/submission_templates/Normalization_planning_v4_7_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_planning_v4_7_0.xlsx
@@ -1724,7 +1724,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1821,12 +1821,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1966,7 +1960,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2063,11 +2057,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5563,6 +5553,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
       <c r="K223" s="13"/>
       <c r="P223" s="0" t="str">
         <f aca="false">IF(AND($N223&lt;&gt;"",$O223&lt;&gt;""), $N223*$O223, "")</f>
@@ -5575,6 +5566,7 @@
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
       <c r="K224" s="13"/>
       <c r="P224" s="0" t="str">
         <f aca="false">IF(AND($N224&lt;&gt;"",$O224&lt;&gt;""), $N224*$O224, "")</f>
@@ -5587,6 +5579,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
       <c r="K225" s="13"/>
       <c r="P225" s="0" t="str">
         <f aca="false">IF(AND($N225&lt;&gt;"",$O225&lt;&gt;""), $N225*$O225, "")</f>
@@ -5599,6 +5592,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
       <c r="K226" s="13"/>
       <c r="P226" s="0" t="str">
         <f aca="false">IF(AND($N226&lt;&gt;"",$O226&lt;&gt;""), $N226*$O226, "")</f>
@@ -5611,6 +5605,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
       <c r="K227" s="13"/>
       <c r="P227" s="0" t="str">
         <f aca="false">IF(AND($N227&lt;&gt;"",$O227&lt;&gt;""), $N227*$O227, "")</f>
@@ -5623,6 +5618,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
       <c r="K228" s="13"/>
       <c r="P228" s="0" t="str">
         <f aca="false">IF(AND($N228&lt;&gt;"",$O228&lt;&gt;""), $N228*$O228, "")</f>
@@ -5635,6 +5631,7 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
       <c r="K229" s="13"/>
       <c r="P229" s="0" t="str">
         <f aca="false">IF(AND($N229&lt;&gt;"",$O229&lt;&gt;""), $N229*$O229, "")</f>
@@ -5647,6 +5644,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
       <c r="K230" s="13"/>
       <c r="P230" s="0" t="str">
         <f aca="false">IF(AND($N230&lt;&gt;"",$O230&lt;&gt;""), $N230*$O230, "")</f>
@@ -5659,6 +5657,7 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
       <c r="K231" s="13"/>
       <c r="P231" s="0" t="str">
         <f aca="false">IF(AND($N231&lt;&gt;"",$O231&lt;&gt;""), $N231*$O231, "")</f>
@@ -5671,6 +5670,7 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
       <c r="K232" s="13"/>
       <c r="P232" s="0" t="str">
         <f aca="false">IF(AND($N232&lt;&gt;"",$O232&lt;&gt;""), $N232*$O232, "")</f>
@@ -5683,6 +5683,7 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
       <c r="K233" s="13"/>
       <c r="P233" s="0" t="str">
         <f aca="false">IF(AND($N233&lt;&gt;"",$O233&lt;&gt;""), $N233*$O233, "")</f>
@@ -5695,6 +5696,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
       <c r="K234" s="13"/>
       <c r="P234" s="0" t="str">
         <f aca="false">IF(AND($N234&lt;&gt;"",$O234&lt;&gt;""), $N234*$O234, "")</f>
@@ -5707,6 +5709,7 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
       <c r="K235" s="13"/>
       <c r="P235" s="0" t="str">
         <f aca="false">IF(AND($N235&lt;&gt;"",$O235&lt;&gt;""), $N235*$O235, "")</f>
@@ -5719,6 +5722,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
       <c r="K236" s="13"/>
       <c r="P236" s="0" t="str">
         <f aca="false">IF(AND($N236&lt;&gt;"",$O236&lt;&gt;""), $N236*$O236, "")</f>
@@ -5731,6 +5735,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
       <c r="K237" s="13"/>
       <c r="P237" s="0" t="str">
         <f aca="false">IF(AND($N237&lt;&gt;"",$O237&lt;&gt;""), $N237*$O237, "")</f>
@@ -5743,6 +5748,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
       <c r="K238" s="13"/>
       <c r="P238" s="0" t="str">
         <f aca="false">IF(AND($N238&lt;&gt;"",$O238&lt;&gt;""), $N238*$O238, "")</f>
@@ -5755,6 +5761,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
       <c r="K239" s="13"/>
       <c r="P239" s="0" t="str">
         <f aca="false">IF(AND($N239&lt;&gt;"",$O239&lt;&gt;""), $N239*$O239, "")</f>
@@ -5767,6 +5774,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
       <c r="K240" s="13"/>
       <c r="P240" s="0" t="str">
         <f aca="false">IF(AND($N240&lt;&gt;"",$O240&lt;&gt;""), $N240*$O240, "")</f>
@@ -5779,6 +5787,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
       <c r="K241" s="13"/>
       <c r="P241" s="0" t="str">
         <f aca="false">IF(AND($N241&lt;&gt;"",$O241&lt;&gt;""), $N241*$O241, "")</f>
@@ -5791,6 +5800,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
       <c r="K242" s="13"/>
       <c r="P242" s="0" t="str">
         <f aca="false">IF(AND($N242&lt;&gt;"",$O242&lt;&gt;""), $N242*$O242, "")</f>
@@ -5803,6 +5813,7 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
       <c r="K243" s="13"/>
       <c r="P243" s="0" t="str">
         <f aca="false">IF(AND($N243&lt;&gt;"",$O243&lt;&gt;""), $N243*$O243, "")</f>
@@ -5815,6 +5826,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
       <c r="K244" s="13"/>
       <c r="P244" s="0" t="str">
         <f aca="false">IF(AND($N244&lt;&gt;"",$O244&lt;&gt;""), $N244*$O244, "")</f>
@@ -5827,6 +5839,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
       <c r="K245" s="13"/>
       <c r="P245" s="0" t="str">
         <f aca="false">IF(AND($N245&lt;&gt;"",$O245&lt;&gt;""), $N245*$O245, "")</f>
@@ -5839,6 +5852,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
       <c r="K246" s="13"/>
       <c r="P246" s="0" t="str">
         <f aca="false">IF(AND($N246&lt;&gt;"",$O246&lt;&gt;""), $N246*$O246, "")</f>
@@ -5851,6 +5865,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
       <c r="K247" s="13"/>
       <c r="P247" s="0" t="str">
         <f aca="false">IF(AND($N247&lt;&gt;"",$O247&lt;&gt;""), $N247*$O247, "")</f>
@@ -5863,6 +5878,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
       <c r="K248" s="13"/>
       <c r="P248" s="0" t="str">
         <f aca="false">IF(AND($N248&lt;&gt;"",$O248&lt;&gt;""), $N248*$O248, "")</f>
@@ -5875,6 +5891,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
       <c r="K249" s="13"/>
       <c r="P249" s="0" t="str">
         <f aca="false">IF(AND($N249&lt;&gt;"",$O249&lt;&gt;""), $N249*$O249, "")</f>
@@ -5887,6 +5904,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
       <c r="K250" s="13"/>
       <c r="P250" s="0" t="str">
         <f aca="false">IF(AND($N250&lt;&gt;"",$O250&lt;&gt;""), $N250*$O250, "")</f>
@@ -5899,6 +5917,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
       <c r="K251" s="13"/>
       <c r="P251" s="0" t="str">
         <f aca="false">IF(AND($N251&lt;&gt;"",$O251&lt;&gt;""), $N251*$O251, "")</f>
@@ -5911,6 +5930,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
       <c r="K252" s="13"/>
       <c r="P252" s="0" t="str">
         <f aca="false">IF(AND($N252&lt;&gt;"",$O252&lt;&gt;""), $N252*$O252, "")</f>
@@ -5923,6 +5943,7 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
       <c r="K253" s="13"/>
       <c r="P253" s="0" t="str">
         <f aca="false">IF(AND($N253&lt;&gt;"",$O253&lt;&gt;""), $N253*$O253, "")</f>
@@ -5935,6 +5956,7 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
       <c r="K254" s="13"/>
       <c r="P254" s="0" t="str">
         <f aca="false">IF(AND($N254&lt;&gt;"",$O254&lt;&gt;""), $N254*$O254, "")</f>
@@ -5947,6 +5969,7 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
       <c r="K255" s="13"/>
       <c r="P255" s="0" t="str">
         <f aca="false">IF(AND($N255&lt;&gt;"",$O255&lt;&gt;""), $N255*$O255, "")</f>
@@ -5959,6 +5982,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
       <c r="K256" s="13"/>
       <c r="P256" s="0" t="str">
         <f aca="false">IF(AND($N256&lt;&gt;"",$O256&lt;&gt;""), $N256*$O256, "")</f>
@@ -5971,6 +5995,7 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
       <c r="K257" s="13"/>
       <c r="P257" s="0" t="str">
         <f aca="false">IF(AND($N257&lt;&gt;"",$O257&lt;&gt;""), $N257*$O257, "")</f>
@@ -5983,6 +6008,7 @@
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
       <c r="K258" s="13"/>
       <c r="P258" s="0" t="str">
         <f aca="false">IF(AND($N258&lt;&gt;"",$O258&lt;&gt;""), $N258*$O258, "")</f>
@@ -5995,6 +6021,7 @@
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
       <c r="K259" s="13"/>
       <c r="P259" s="0" t="str">
         <f aca="false">IF(AND($N259&lt;&gt;"",$O259&lt;&gt;""), $N259*$O259, "")</f>
@@ -6007,6 +6034,7 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
       <c r="K260" s="13"/>
       <c r="P260" s="0" t="str">
         <f aca="false">IF(AND($N260&lt;&gt;"",$O260&lt;&gt;""), $N260*$O260, "")</f>
@@ -6019,6 +6047,7 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
       <c r="K261" s="13"/>
       <c r="P261" s="0" t="str">
         <f aca="false">IF(AND($N261&lt;&gt;"",$O261&lt;&gt;""), $N261*$O261, "")</f>
@@ -6031,6 +6060,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
       <c r="K262" s="13"/>
       <c r="P262" s="0" t="str">
         <f aca="false">IF(AND($N262&lt;&gt;"",$O262&lt;&gt;""), $N262*$O262, "")</f>
@@ -6043,6 +6073,7 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
       <c r="K263" s="13"/>
       <c r="P263" s="0" t="str">
         <f aca="false">IF(AND($N263&lt;&gt;"",$O263&lt;&gt;""), $N263*$O263, "")</f>
@@ -6055,6 +6086,7 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
       <c r="K264" s="13"/>
       <c r="P264" s="0" t="str">
         <f aca="false">IF(AND($N264&lt;&gt;"",$O264&lt;&gt;""), $N264*$O264, "")</f>
@@ -6067,6 +6099,7 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
       <c r="K265" s="13"/>
       <c r="P265" s="0" t="str">
         <f aca="false">IF(AND($N265&lt;&gt;"",$O265&lt;&gt;""), $N265*$O265, "")</f>
@@ -6079,6 +6112,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
       <c r="K266" s="13"/>
       <c r="P266" s="0" t="str">
         <f aca="false">IF(AND($N266&lt;&gt;"",$O266&lt;&gt;""), $N266*$O266, "")</f>
@@ -6091,6 +6125,7 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
       <c r="K267" s="13"/>
       <c r="P267" s="0" t="str">
         <f aca="false">IF(AND($N267&lt;&gt;"",$O267&lt;&gt;""), $N267*$O267, "")</f>
@@ -6103,6 +6138,7 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
       <c r="K268" s="13"/>
       <c r="P268" s="0" t="str">
         <f aca="false">IF(AND($N268&lt;&gt;"",$O268&lt;&gt;""), $N268*$O268, "")</f>
@@ -6115,6 +6151,7 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
       <c r="K269" s="13"/>
       <c r="P269" s="0" t="str">
         <f aca="false">IF(AND($N269&lt;&gt;"",$O269&lt;&gt;""), $N269*$O269, "")</f>
@@ -6127,6 +6164,7 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
       <c r="K270" s="13"/>
       <c r="P270" s="0" t="str">
         <f aca="false">IF(AND($N270&lt;&gt;"",$O270&lt;&gt;""), $N270*$O270, "")</f>
@@ -6139,6 +6177,7 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
       <c r="K271" s="13"/>
       <c r="P271" s="0" t="str">
         <f aca="false">IF(AND($N271&lt;&gt;"",$O271&lt;&gt;""), $N271*$O271, "")</f>
@@ -6151,6 +6190,7 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
       <c r="K272" s="13"/>
       <c r="P272" s="0" t="str">
         <f aca="false">IF(AND($N272&lt;&gt;"",$O272&lt;&gt;""), $N272*$O272, "")</f>
@@ -6163,6 +6203,7 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
       <c r="K273" s="13"/>
       <c r="P273" s="0" t="str">
         <f aca="false">IF(AND($N273&lt;&gt;"",$O273&lt;&gt;""), $N273*$O273, "")</f>
@@ -6175,6 +6216,7 @@
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
       <c r="K274" s="13"/>
       <c r="P274" s="0" t="str">
         <f aca="false">IF(AND($N274&lt;&gt;"",$O274&lt;&gt;""), $N274*$O274, "")</f>
@@ -6187,6 +6229,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
       <c r="K275" s="13"/>
       <c r="P275" s="0" t="str">
         <f aca="false">IF(AND($N275&lt;&gt;"",$O275&lt;&gt;""), $N275*$O275, "")</f>
@@ -6199,6 +6242,7 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
       <c r="K276" s="13"/>
       <c r="P276" s="0" t="str">
         <f aca="false">IF(AND($N276&lt;&gt;"",$O276&lt;&gt;""), $N276*$O276, "")</f>
@@ -6211,6 +6255,7 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
       <c r="K277" s="13"/>
       <c r="P277" s="0" t="str">
         <f aca="false">IF(AND($N277&lt;&gt;"",$O277&lt;&gt;""), $N277*$O277, "")</f>
@@ -6223,6 +6268,7 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
       <c r="K278" s="13"/>
       <c r="P278" s="0" t="str">
         <f aca="false">IF(AND($N278&lt;&gt;"",$O278&lt;&gt;""), $N278*$O278, "")</f>
@@ -6235,6 +6281,7 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
       <c r="K279" s="13"/>
       <c r="P279" s="0" t="str">
         <f aca="false">IF(AND($N279&lt;&gt;"",$O279&lt;&gt;""), $N279*$O279, "")</f>
@@ -6247,6 +6294,7 @@
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
       <c r="K280" s="13"/>
       <c r="P280" s="0" t="str">
         <f aca="false">IF(AND($N280&lt;&gt;"",$O280&lt;&gt;""), $N280*$O280, "")</f>
@@ -6259,6 +6307,7 @@
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
       <c r="K281" s="13"/>
       <c r="P281" s="0" t="str">
         <f aca="false">IF(AND($N281&lt;&gt;"",$O281&lt;&gt;""), $N281*$O281, "")</f>
@@ -6271,6 +6320,7 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
       <c r="K282" s="13"/>
       <c r="P282" s="0" t="str">
         <f aca="false">IF(AND($N282&lt;&gt;"",$O282&lt;&gt;""), $N282*$O282, "")</f>
@@ -6283,6 +6333,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
       <c r="K283" s="13"/>
       <c r="P283" s="0" t="str">
         <f aca="false">IF(AND($N283&lt;&gt;"",$O283&lt;&gt;""), $N283*$O283, "")</f>
@@ -6295,6 +6346,7 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
       <c r="K284" s="13"/>
       <c r="P284" s="0" t="str">
         <f aca="false">IF(AND($N284&lt;&gt;"",$O284&lt;&gt;""), $N284*$O284, "")</f>
@@ -6307,6 +6359,7 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
       <c r="K285" s="13"/>
       <c r="P285" s="0" t="str">
         <f aca="false">IF(AND($N285&lt;&gt;"",$O285&lt;&gt;""), $N285*$O285, "")</f>
@@ -6319,6 +6372,7 @@
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
       <c r="K286" s="13"/>
       <c r="P286" s="0" t="str">
         <f aca="false">IF(AND($N286&lt;&gt;"",$O286&lt;&gt;""), $N286*$O286, "")</f>
@@ -6331,6 +6385,7 @@
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
       <c r="K287" s="13"/>
       <c r="P287" s="0" t="str">
         <f aca="false">IF(AND($N287&lt;&gt;"",$O287&lt;&gt;""), $N287*$O287, "")</f>
@@ -6343,6 +6398,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="H288" s="2"/>
+      <c r="I288" s="2"/>
       <c r="K288" s="13"/>
       <c r="P288" s="0" t="str">
         <f aca="false">IF(AND($N288&lt;&gt;"",$O288&lt;&gt;""), $N288*$O288, "")</f>
@@ -6355,6 +6411,7 @@
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
       <c r="K289" s="13"/>
       <c r="P289" s="0" t="str">
         <f aca="false">IF(AND($N289&lt;&gt;"",$O289&lt;&gt;""), $N289*$O289, "")</f>
@@ -6367,6 +6424,7 @@
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
       <c r="K290" s="13"/>
       <c r="P290" s="0" t="str">
         <f aca="false">IF(AND($N290&lt;&gt;"",$O290&lt;&gt;""), $N290*$O290, "")</f>
@@ -6379,6 +6437,7 @@
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
       <c r="K291" s="13"/>
       <c r="P291" s="0" t="str">
         <f aca="false">IF(AND($N291&lt;&gt;"",$O291&lt;&gt;""), $N291*$O291, "")</f>
@@ -6391,6 +6450,7 @@
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
       <c r="K292" s="13"/>
       <c r="P292" s="0" t="str">
         <f aca="false">IF(AND($N292&lt;&gt;"",$O292&lt;&gt;""), $N292*$O292, "")</f>
@@ -6403,6 +6463,7 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
       <c r="K293" s="13"/>
       <c r="P293" s="0" t="str">
         <f aca="false">IF(AND($N293&lt;&gt;"",$O293&lt;&gt;""), $N293*$O293, "")</f>
@@ -6415,6 +6476,7 @@
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
       <c r="K294" s="13"/>
       <c r="P294" s="0" t="str">
         <f aca="false">IF(AND($N294&lt;&gt;"",$O294&lt;&gt;""), $N294*$O294, "")</f>
@@ -6427,6 +6489,7 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
       <c r="K295" s="13"/>
       <c r="P295" s="0" t="str">
         <f aca="false">IF(AND($N295&lt;&gt;"",$O295&lt;&gt;""), $N295*$O295, "")</f>
@@ -6439,6 +6502,7 @@
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
       <c r="K296" s="13"/>
       <c r="P296" s="0" t="str">
         <f aca="false">IF(AND($N296&lt;&gt;"",$O296&lt;&gt;""), $N296*$O296, "")</f>
@@ -6451,6 +6515,7 @@
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
       <c r="K297" s="13"/>
       <c r="P297" s="0" t="str">
         <f aca="false">IF(AND($N297&lt;&gt;"",$O297&lt;&gt;""), $N297*$O297, "")</f>
@@ -6463,6 +6528,7 @@
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
       <c r="K298" s="13"/>
       <c r="P298" s="0" t="str">
         <f aca="false">IF(AND($N298&lt;&gt;"",$O298&lt;&gt;""), $N298*$O298, "")</f>
@@ -6475,6 +6541,7 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
       <c r="K299" s="13"/>
       <c r="P299" s="0" t="str">
         <f aca="false">IF(AND($N299&lt;&gt;"",$O299&lt;&gt;""), $N299*$O299, "")</f>
@@ -6487,6 +6554,7 @@
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
       <c r="K300" s="13"/>
       <c r="P300" s="0" t="str">
         <f aca="false">IF(AND($N300&lt;&gt;"",$O300&lt;&gt;""), $N300*$O300, "")</f>
@@ -6499,6 +6567,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
       <c r="K301" s="13"/>
       <c r="P301" s="0" t="str">
         <f aca="false">IF(AND($N301&lt;&gt;"",$O301&lt;&gt;""), $N301*$O301, "")</f>
@@ -6511,6 +6580,7 @@
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
       <c r="K302" s="13"/>
       <c r="P302" s="0" t="str">
         <f aca="false">IF(AND($N302&lt;&gt;"",$O302&lt;&gt;""), $N302*$O302, "")</f>
@@ -6523,6 +6593,7 @@
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
       <c r="K303" s="13"/>
       <c r="P303" s="0" t="str">
         <f aca="false">IF(AND($N303&lt;&gt;"",$O303&lt;&gt;""), $N303*$O303, "")</f>
@@ -6535,6 +6606,7 @@
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
       <c r="K304" s="13"/>
       <c r="P304" s="0" t="str">
         <f aca="false">IF(AND($N304&lt;&gt;"",$O304&lt;&gt;""), $N304*$O304, "")</f>
@@ -6547,6 +6619,7 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
       <c r="K305" s="13"/>
       <c r="P305" s="0" t="str">
         <f aca="false">IF(AND($N305&lt;&gt;"",$O305&lt;&gt;""), $N305*$O305, "")</f>
@@ -6559,6 +6632,7 @@
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
       <c r="K306" s="13"/>
       <c r="P306" s="0" t="str">
         <f aca="false">IF(AND($N306&lt;&gt;"",$O306&lt;&gt;""), $N306*$O306, "")</f>
@@ -6571,6 +6645,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
       <c r="K307" s="13"/>
       <c r="P307" s="0" t="str">
         <f aca="false">IF(AND($N307&lt;&gt;"",$O307&lt;&gt;""), $N307*$O307, "")</f>
@@ -6583,6 +6658,7 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
       <c r="K308" s="13"/>
       <c r="P308" s="0" t="str">
         <f aca="false">IF(AND($N308&lt;&gt;"",$O308&lt;&gt;""), $N308*$O308, "")</f>
@@ -6595,6 +6671,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
       <c r="K309" s="13"/>
       <c r="P309" s="0" t="str">
         <f aca="false">IF(AND($N309&lt;&gt;"",$O309&lt;&gt;""), $N309*$O309, "")</f>
@@ -6607,6 +6684,7 @@
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
       <c r="K310" s="13"/>
       <c r="P310" s="0" t="str">
         <f aca="false">IF(AND($N310&lt;&gt;"",$O310&lt;&gt;""), $N310*$O310, "")</f>
@@ -6619,6 +6697,7 @@
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
       <c r="K311" s="13"/>
       <c r="P311" s="0" t="str">
         <f aca="false">IF(AND($N311&lt;&gt;"",$O311&lt;&gt;""), $N311*$O311, "")</f>
@@ -6631,6 +6710,7 @@
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
       <c r="K312" s="13"/>
       <c r="P312" s="0" t="str">
         <f aca="false">IF(AND($N312&lt;&gt;"",$O312&lt;&gt;""), $N312*$O312, "")</f>
@@ -6643,6 +6723,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
       <c r="K313" s="13"/>
       <c r="P313" s="0" t="str">
         <f aca="false">IF(AND($N313&lt;&gt;"",$O313&lt;&gt;""), $N313*$O313, "")</f>
@@ -6655,6 +6736,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
       <c r="K314" s="13"/>
       <c r="P314" s="0" t="str">
         <f aca="false">IF(AND($N314&lt;&gt;"",$O314&lt;&gt;""), $N314*$O314, "")</f>
@@ -6667,6 +6749,7 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
       <c r="K315" s="13"/>
       <c r="P315" s="0" t="str">
         <f aca="false">IF(AND($N315&lt;&gt;"",$O315&lt;&gt;""), $N315*$O315, "")</f>
@@ -6679,6 +6762,7 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
       <c r="K316" s="13"/>
       <c r="P316" s="0" t="str">
         <f aca="false">IF(AND($N316&lt;&gt;"",$O316&lt;&gt;""), $N316*$O316, "")</f>
@@ -6691,6 +6775,7 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
       <c r="K317" s="13"/>
       <c r="P317" s="0" t="str">
         <f aca="false">IF(AND($N317&lt;&gt;"",$O317&lt;&gt;""), $N317*$O317, "")</f>
@@ -6703,6 +6788,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
       <c r="K318" s="13"/>
       <c r="P318" s="0" t="str">
         <f aca="false">IF(AND($N318&lt;&gt;"",$O318&lt;&gt;""), $N318*$O318, "")</f>
@@ -6715,6 +6801,7 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="H319" s="2"/>
+      <c r="I319" s="2"/>
       <c r="K319" s="13"/>
       <c r="P319" s="0" t="str">
         <f aca="false">IF(AND($N319&lt;&gt;"",$O319&lt;&gt;""), $N319*$O319, "")</f>
@@ -6727,6 +6814,7 @@
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
       <c r="K320" s="13"/>
       <c r="P320" s="0" t="str">
         <f aca="false">IF(AND($N320&lt;&gt;"",$O320&lt;&gt;""), $N320*$O320, "")</f>
@@ -6739,6 +6827,7 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
       <c r="K321" s="13"/>
       <c r="P321" s="0" t="str">
         <f aca="false">IF(AND($N321&lt;&gt;"",$O321&lt;&gt;""), $N321*$O321, "")</f>
@@ -6751,6 +6840,7 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="H322" s="2"/>
+      <c r="I322" s="2"/>
       <c r="K322" s="13"/>
       <c r="P322" s="0" t="str">
         <f aca="false">IF(AND($N322&lt;&gt;"",$O322&lt;&gt;""), $N322*$O322, "")</f>
@@ -6763,6 +6853,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
       <c r="K323" s="13"/>
       <c r="P323" s="0" t="str">
         <f aca="false">IF(AND($N323&lt;&gt;"",$O323&lt;&gt;""), $N323*$O323, "")</f>
@@ -6775,6 +6866,7 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
       <c r="K324" s="13"/>
       <c r="P324" s="0" t="str">
         <f aca="false">IF(AND($N324&lt;&gt;"",$O324&lt;&gt;""), $N324*$O324, "")</f>
@@ -6787,6 +6879,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
       <c r="K325" s="13"/>
       <c r="P325" s="0" t="str">
         <f aca="false">IF(AND($N325&lt;&gt;"",$O325&lt;&gt;""), $N325*$O325, "")</f>
@@ -6799,6 +6892,7 @@
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
       <c r="K326" s="13"/>
       <c r="P326" s="0" t="str">
         <f aca="false">IF(AND($N326&lt;&gt;"",$O326&lt;&gt;""), $N326*$O326, "")</f>
@@ -6811,6 +6905,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
       <c r="K327" s="13"/>
       <c r="P327" s="0" t="str">
         <f aca="false">IF(AND($N327&lt;&gt;"",$O327&lt;&gt;""), $N327*$O327, "")</f>
@@ -6823,6 +6918,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
       <c r="K328" s="13"/>
       <c r="P328" s="0" t="str">
         <f aca="false">IF(AND($N328&lt;&gt;"",$O328&lt;&gt;""), $N328*$O328, "")</f>
@@ -6835,6 +6931,7 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
       <c r="K329" s="13"/>
       <c r="P329" s="0" t="str">
         <f aca="false">IF(AND($N329&lt;&gt;"",$O329&lt;&gt;""), $N329*$O329, "")</f>
@@ -6847,6 +6944,7 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
       <c r="K330" s="13"/>
       <c r="P330" s="0" t="str">
         <f aca="false">IF(AND($N330&lt;&gt;"",$O330&lt;&gt;""), $N330*$O330, "")</f>
@@ -6859,6 +6957,7 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
       <c r="K331" s="13"/>
       <c r="P331" s="0" t="str">
         <f aca="false">IF(AND($N331&lt;&gt;"",$O331&lt;&gt;""), $N331*$O331, "")</f>
@@ -6871,6 +6970,7 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
       <c r="K332" s="13"/>
       <c r="P332" s="0" t="str">
         <f aca="false">IF(AND($N332&lt;&gt;"",$O332&lt;&gt;""), $N332*$O332, "")</f>
@@ -6883,6 +6983,7 @@
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
       <c r="K333" s="13"/>
       <c r="P333" s="0" t="str">
         <f aca="false">IF(AND($N333&lt;&gt;"",$O333&lt;&gt;""), $N333*$O333, "")</f>
@@ -6895,6 +6996,7 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
       <c r="K334" s="13"/>
       <c r="P334" s="0" t="str">
         <f aca="false">IF(AND($N334&lt;&gt;"",$O334&lt;&gt;""), $N334*$O334, "")</f>
@@ -6907,6 +7009,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
       <c r="K335" s="13"/>
       <c r="P335" s="0" t="str">
         <f aca="false">IF(AND($N335&lt;&gt;"",$O335&lt;&gt;""), $N335*$O335, "")</f>
@@ -6919,6 +7022,7 @@
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
       <c r="K336" s="13"/>
       <c r="P336" s="0" t="str">
         <f aca="false">IF(AND($N336&lt;&gt;"",$O336&lt;&gt;""), $N336*$O336, "")</f>
@@ -6931,6 +7035,7 @@
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
       <c r="K337" s="13"/>
       <c r="P337" s="0" t="str">
         <f aca="false">IF(AND($N337&lt;&gt;"",$O337&lt;&gt;""), $N337*$O337, "")</f>
@@ -6943,6 +7048,7 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
       <c r="K338" s="13"/>
       <c r="P338" s="0" t="str">
         <f aca="false">IF(AND($N338&lt;&gt;"",$O338&lt;&gt;""), $N338*$O338, "")</f>
@@ -6955,6 +7061,7 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
       <c r="K339" s="13"/>
       <c r="P339" s="0" t="str">
         <f aca="false">IF(AND($N339&lt;&gt;"",$O339&lt;&gt;""), $N339*$O339, "")</f>
@@ -6967,6 +7074,7 @@
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
       <c r="K340" s="13"/>
       <c r="P340" s="0" t="str">
         <f aca="false">IF(AND($N340&lt;&gt;"",$O340&lt;&gt;""), $N340*$O340, "")</f>
@@ -6979,6 +7087,7 @@
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
       <c r="K341" s="13"/>
       <c r="P341" s="0" t="str">
         <f aca="false">IF(AND($N341&lt;&gt;"",$O341&lt;&gt;""), $N341*$O341, "")</f>
@@ -6991,6 +7100,7 @@
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
       <c r="K342" s="13"/>
       <c r="P342" s="0" t="str">
         <f aca="false">IF(AND($N342&lt;&gt;"",$O342&lt;&gt;""), $N342*$O342, "")</f>
@@ -7003,6 +7113,7 @@
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
       <c r="K343" s="13"/>
       <c r="P343" s="0" t="str">
         <f aca="false">IF(AND($N343&lt;&gt;"",$O343&lt;&gt;""), $N343*$O343, "")</f>
@@ -7015,6 +7126,7 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
       <c r="K344" s="13"/>
       <c r="P344" s="0" t="str">
         <f aca="false">IF(AND($N344&lt;&gt;"",$O344&lt;&gt;""), $N344*$O344, "")</f>
@@ -7027,6 +7139,7 @@
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
       <c r="K345" s="13"/>
       <c r="P345" s="0" t="str">
         <f aca="false">IF(AND($N345&lt;&gt;"",$O345&lt;&gt;""), $N345*$O345, "")</f>
@@ -7039,6 +7152,7 @@
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
       <c r="K346" s="13"/>
       <c r="P346" s="0" t="str">
         <f aca="false">IF(AND($N346&lt;&gt;"",$O346&lt;&gt;""), $N346*$O346, "")</f>
@@ -7051,6 +7165,7 @@
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
       <c r="K347" s="13"/>
       <c r="P347" s="0" t="str">
         <f aca="false">IF(AND($N347&lt;&gt;"",$O347&lt;&gt;""), $N347*$O347, "")</f>
@@ -7063,6 +7178,7 @@
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
       <c r="K348" s="13"/>
       <c r="P348" s="0" t="str">
         <f aca="false">IF(AND($N348&lt;&gt;"",$O348&lt;&gt;""), $N348*$O348, "")</f>
@@ -7075,6 +7191,7 @@
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
       <c r="K349" s="13"/>
       <c r="P349" s="0" t="str">
         <f aca="false">IF(AND($N349&lt;&gt;"",$O349&lt;&gt;""), $N349*$O349, "")</f>
@@ -7087,6 +7204,7 @@
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
       <c r="K350" s="13"/>
       <c r="P350" s="0" t="str">
         <f aca="false">IF(AND($N350&lt;&gt;"",$O350&lt;&gt;""), $N350*$O350, "")</f>
@@ -7099,6 +7217,7 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
       <c r="K351" s="13"/>
       <c r="P351" s="0" t="str">
         <f aca="false">IF(AND($N351&lt;&gt;"",$O351&lt;&gt;""), $N351*$O351, "")</f>
@@ -7111,6 +7230,7 @@
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
       <c r="K352" s="13"/>
       <c r="P352" s="0" t="str">
         <f aca="false">IF(AND($N352&lt;&gt;"",$O352&lt;&gt;""), $N352*$O352, "")</f>
@@ -7123,6 +7243,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="H353" s="2"/>
+      <c r="I353" s="2"/>
       <c r="K353" s="13"/>
       <c r="P353" s="0" t="str">
         <f aca="false">IF(AND($N353&lt;&gt;"",$O353&lt;&gt;""), $N353*$O353, "")</f>
@@ -7135,6 +7256,7 @@
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
       <c r="K354" s="13"/>
       <c r="P354" s="0" t="str">
         <f aca="false">IF(AND($N354&lt;&gt;"",$O354&lt;&gt;""), $N354*$O354, "")</f>
@@ -7147,6 +7269,7 @@
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
       <c r="K355" s="13"/>
       <c r="P355" s="0" t="str">
         <f aca="false">IF(AND($N355&lt;&gt;"",$O355&lt;&gt;""), $N355*$O355, "")</f>
@@ -7159,6 +7282,7 @@
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="H356" s="2"/>
+      <c r="I356" s="2"/>
       <c r="K356" s="13"/>
       <c r="P356" s="0" t="str">
         <f aca="false">IF(AND($N356&lt;&gt;"",$O356&lt;&gt;""), $N356*$O356, "")</f>
@@ -7171,6 +7295,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
       <c r="K357" s="13"/>
       <c r="P357" s="0" t="str">
         <f aca="false">IF(AND($N357&lt;&gt;"",$O357&lt;&gt;""), $N357*$O357, "")</f>
@@ -7183,6 +7308,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="H358" s="2"/>
+      <c r="I358" s="2"/>
       <c r="K358" s="13"/>
       <c r="P358" s="0" t="str">
         <f aca="false">IF(AND($N358&lt;&gt;"",$O358&lt;&gt;""), $N358*$O358, "")</f>
@@ -7195,6 +7321,7 @@
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="H359" s="2"/>
+      <c r="I359" s="2"/>
       <c r="K359" s="13"/>
       <c r="P359" s="0" t="str">
         <f aca="false">IF(AND($N359&lt;&gt;"",$O359&lt;&gt;""), $N359*$O359, "")</f>
@@ -7207,6 +7334,7 @@
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="H360" s="2"/>
+      <c r="I360" s="2"/>
       <c r="K360" s="13"/>
       <c r="P360" s="0" t="str">
         <f aca="false">IF(AND($N360&lt;&gt;"",$O360&lt;&gt;""), $N360*$O360, "")</f>
@@ -7219,6 +7347,7 @@
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="H361" s="2"/>
+      <c r="I361" s="2"/>
       <c r="K361" s="13"/>
       <c r="P361" s="0" t="str">
         <f aca="false">IF(AND($N361&lt;&gt;"",$O361&lt;&gt;""), $N361*$O361, "")</f>
@@ -7231,6 +7360,7 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="H362" s="2"/>
+      <c r="I362" s="2"/>
       <c r="K362" s="13"/>
       <c r="P362" s="0" t="str">
         <f aca="false">IF(AND($N362&lt;&gt;"",$O362&lt;&gt;""), $N362*$O362, "")</f>
@@ -7243,6 +7373,7 @@
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="H363" s="2"/>
+      <c r="I363" s="2"/>
       <c r="K363" s="13"/>
       <c r="P363" s="0" t="str">
         <f aca="false">IF(AND($N363&lt;&gt;"",$O363&lt;&gt;""), $N363*$O363, "")</f>
@@ -7255,6 +7386,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="H364" s="2"/>
+      <c r="I364" s="2"/>
       <c r="K364" s="13"/>
       <c r="P364" s="0" t="str">
         <f aca="false">IF(AND($N364&lt;&gt;"",$O364&lt;&gt;""), $N364*$O364, "")</f>
@@ -7267,6 +7399,7 @@
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="H365" s="2"/>
+      <c r="I365" s="2"/>
       <c r="K365" s="13"/>
       <c r="P365" s="0" t="str">
         <f aca="false">IF(AND($N365&lt;&gt;"",$O365&lt;&gt;""), $N365*$O365, "")</f>
@@ -7279,6 +7412,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="H366" s="2"/>
+      <c r="I366" s="2"/>
       <c r="K366" s="13"/>
       <c r="P366" s="0" t="str">
         <f aca="false">IF(AND($N366&lt;&gt;"",$O366&lt;&gt;""), $N366*$O366, "")</f>
@@ -7291,6 +7425,7 @@
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="H367" s="2"/>
+      <c r="I367" s="2"/>
       <c r="K367" s="13"/>
       <c r="P367" s="0" t="str">
         <f aca="false">IF(AND($N367&lt;&gt;"",$O367&lt;&gt;""), $N367*$O367, "")</f>
@@ -7303,6 +7438,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="H368" s="2"/>
+      <c r="I368" s="2"/>
       <c r="K368" s="13"/>
       <c r="P368" s="0" t="str">
         <f aca="false">IF(AND($N368&lt;&gt;"",$O368&lt;&gt;""), $N368*$O368, "")</f>
@@ -7315,6 +7451,7 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="H369" s="2"/>
+      <c r="I369" s="2"/>
       <c r="K369" s="13"/>
       <c r="P369" s="0" t="str">
         <f aca="false">IF(AND($N369&lt;&gt;"",$O369&lt;&gt;""), $N369*$O369, "")</f>
@@ -7327,6 +7464,7 @@
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="H370" s="2"/>
+      <c r="I370" s="2"/>
       <c r="K370" s="13"/>
       <c r="P370" s="0" t="str">
         <f aca="false">IF(AND($N370&lt;&gt;"",$O370&lt;&gt;""), $N370*$O370, "")</f>
@@ -7339,6 +7477,7 @@
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
       <c r="K371" s="13"/>
       <c r="P371" s="0" t="str">
         <f aca="false">IF(AND($N371&lt;&gt;"",$O371&lt;&gt;""), $N371*$O371, "")</f>
@@ -7351,6 +7490,7 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
       <c r="K372" s="13"/>
       <c r="P372" s="0" t="str">
         <f aca="false">IF(AND($N372&lt;&gt;"",$O372&lt;&gt;""), $N372*$O372, "")</f>
@@ -7363,6 +7503,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="H373" s="2"/>
+      <c r="I373" s="2"/>
       <c r="K373" s="13"/>
       <c r="P373" s="0" t="str">
         <f aca="false">IF(AND($N373&lt;&gt;"",$O373&lt;&gt;""), $N373*$O373, "")</f>
@@ -7375,6 +7516,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
       <c r="K374" s="13"/>
       <c r="P374" s="0" t="str">
         <f aca="false">IF(AND($N374&lt;&gt;"",$O374&lt;&gt;""), $N374*$O374, "")</f>
@@ -7387,6 +7529,7 @@
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
       <c r="K375" s="13"/>
       <c r="P375" s="0" t="str">
         <f aca="false">IF(AND($N375&lt;&gt;"",$O375&lt;&gt;""), $N375*$O375, "")</f>
@@ -7399,6 +7542,7 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="H376" s="2"/>
+      <c r="I376" s="2"/>
       <c r="K376" s="13"/>
       <c r="P376" s="0" t="str">
         <f aca="false">IF(AND($N376&lt;&gt;"",$O376&lt;&gt;""), $N376*$O376, "")</f>
@@ -7411,6 +7555,7 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="H377" s="2"/>
+      <c r="I377" s="2"/>
       <c r="K377" s="13"/>
       <c r="P377" s="0" t="str">
         <f aca="false">IF(AND($N377&lt;&gt;"",$O377&lt;&gt;""), $N377*$O377, "")</f>
@@ -7423,6 +7568,7 @@
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="H378" s="2"/>
+      <c r="I378" s="2"/>
       <c r="K378" s="13"/>
       <c r="P378" s="0" t="str">
         <f aca="false">IF(AND($N378&lt;&gt;"",$O378&lt;&gt;""), $N378*$O378, "")</f>
@@ -7435,6 +7581,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="H379" s="2"/>
+      <c r="I379" s="2"/>
       <c r="K379" s="13"/>
       <c r="P379" s="0" t="str">
         <f aca="false">IF(AND($N379&lt;&gt;"",$O379&lt;&gt;""), $N379*$O379, "")</f>
@@ -7447,6 +7594,7 @@
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="H380" s="2"/>
+      <c r="I380" s="2"/>
       <c r="K380" s="13"/>
       <c r="P380" s="0" t="str">
         <f aca="false">IF(AND($N380&lt;&gt;"",$O380&lt;&gt;""), $N380*$O380, "")</f>
@@ -7459,6 +7607,7 @@
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="H381" s="2"/>
+      <c r="I381" s="2"/>
       <c r="K381" s="13"/>
       <c r="P381" s="0" t="str">
         <f aca="false">IF(AND($N381&lt;&gt;"",$O381&lt;&gt;""), $N381*$O381, "")</f>
@@ -7471,6 +7620,7 @@
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="H382" s="2"/>
+      <c r="I382" s="2"/>
       <c r="K382" s="13"/>
       <c r="P382" s="0" t="str">
         <f aca="false">IF(AND($N382&lt;&gt;"",$O382&lt;&gt;""), $N382*$O382, "")</f>
@@ -7483,6 +7633,7 @@
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="H383" s="2"/>
+      <c r="I383" s="2"/>
       <c r="K383" s="13"/>
       <c r="P383" s="0" t="str">
         <f aca="false">IF(AND($N383&lt;&gt;"",$O383&lt;&gt;""), $N383*$O383, "")</f>
@@ -7495,6 +7646,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="H384" s="2"/>
+      <c r="I384" s="2"/>
       <c r="K384" s="13"/>
       <c r="P384" s="0" t="str">
         <f aca="false">IF(AND($N384&lt;&gt;"",$O384&lt;&gt;""), $N384*$O384, "")</f>
@@ -7507,6 +7659,7 @@
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="H385" s="2"/>
+      <c r="I385" s="2"/>
       <c r="K385" s="13"/>
       <c r="P385" s="0" t="str">
         <f aca="false">IF(AND($N385&lt;&gt;"",$O385&lt;&gt;""), $N385*$O385, "")</f>
@@ -7519,6 +7672,7 @@
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="H386" s="2"/>
+      <c r="I386" s="2"/>
       <c r="K386" s="13"/>
       <c r="P386" s="0" t="str">
         <f aca="false">IF(AND($N386&lt;&gt;"",$O386&lt;&gt;""), $N386*$O386, "")</f>
@@ -7531,6 +7685,7 @@
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="H387" s="2"/>
+      <c r="I387" s="2"/>
       <c r="K387" s="13"/>
       <c r="P387" s="0" t="str">
         <f aca="false">IF(AND($N387&lt;&gt;"",$O387&lt;&gt;""), $N387*$O387, "")</f>
@@ -7543,6 +7698,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="H388" s="2"/>
+      <c r="I388" s="2"/>
       <c r="K388" s="13"/>
       <c r="P388" s="0" t="str">
         <f aca="false">IF(AND($N388&lt;&gt;"",$O388&lt;&gt;""), $N388*$O388, "")</f>
@@ -7555,6 +7711,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="H389" s="2"/>
+      <c r="I389" s="2"/>
       <c r="K389" s="13"/>
       <c r="P389" s="0" t="str">
         <f aca="false">IF(AND($N389&lt;&gt;"",$O389&lt;&gt;""), $N389*$O389, "")</f>
@@ -7567,6 +7724,7 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="H390" s="2"/>
+      <c r="I390" s="2"/>
       <c r="K390" s="13"/>
       <c r="P390" s="0" t="str">
         <f aca="false">IF(AND($N390&lt;&gt;"",$O390&lt;&gt;""), $N390*$O390, "")</f>
@@ -7579,6 +7737,7 @@
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="H391" s="2"/>
+      <c r="I391" s="2"/>
       <c r="K391" s="13"/>
       <c r="P391" s="0" t="str">
         <f aca="false">IF(AND($N391&lt;&gt;"",$O391&lt;&gt;""), $N391*$O391, "")</f>
@@ -7591,6 +7750,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="H392" s="2"/>
+      <c r="I392" s="2"/>
       <c r="K392" s="13"/>
       <c r="P392" s="0" t="str">
         <f aca="false">IF(AND($N392&lt;&gt;"",$O392&lt;&gt;""), $N392*$O392, "")</f>
@@ -7603,6 +7763,7 @@
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="H393" s="2"/>
+      <c r="I393" s="2"/>
       <c r="K393" s="13"/>
       <c r="P393" s="0" t="str">
         <f aca="false">IF(AND($N393&lt;&gt;"",$O393&lt;&gt;""), $N393*$O393, "")</f>
@@ -7615,6 +7776,7 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="H394" s="2"/>
+      <c r="I394" s="2"/>
       <c r="K394" s="13"/>
       <c r="P394" s="0" t="str">
         <f aca="false">IF(AND($N394&lt;&gt;"",$O394&lt;&gt;""), $N394*$O394, "")</f>
@@ -7627,6 +7789,7 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="H395" s="2"/>
+      <c r="I395" s="2"/>
       <c r="K395" s="13"/>
       <c r="P395" s="0" t="str">
         <f aca="false">IF(AND($N395&lt;&gt;"",$O395&lt;&gt;""), $N395*$O395, "")</f>
@@ -7639,6 +7802,7 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="H396" s="2"/>
+      <c r="I396" s="2"/>
       <c r="K396" s="13"/>
       <c r="P396" s="0" t="str">
         <f aca="false">IF(AND($N396&lt;&gt;"",$O396&lt;&gt;""), $N396*$O396, "")</f>
@@ -7651,6 +7815,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="H397" s="2"/>
+      <c r="I397" s="2"/>
       <c r="K397" s="13"/>
       <c r="P397" s="0" t="str">
         <f aca="false">IF(AND($N397&lt;&gt;"",$O397&lt;&gt;""), $N397*$O397, "")</f>
@@ -7663,6 +7828,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="H398" s="2"/>
+      <c r="I398" s="2"/>
       <c r="K398" s="13"/>
       <c r="P398" s="0" t="str">
         <f aca="false">IF(AND($N398&lt;&gt;"",$O398&lt;&gt;""), $N398*$O398, "")</f>
@@ -7675,6 +7841,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="H399" s="2"/>
+      <c r="I399" s="2"/>
       <c r="K399" s="13"/>
       <c r="P399" s="0" t="str">
         <f aca="false">IF(AND($N399&lt;&gt;"",$O399&lt;&gt;""), $N399*$O399, "")</f>
@@ -7687,6 +7854,7 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="H400" s="2"/>
+      <c r="I400" s="2"/>
       <c r="K400" s="13"/>
       <c r="P400" s="0" t="str">
         <f aca="false">IF(AND($N400&lt;&gt;"",$O400&lt;&gt;""), $N400*$O400, "")</f>
@@ -7699,6 +7867,7 @@
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="H401" s="2"/>
+      <c r="I401" s="2"/>
       <c r="K401" s="13"/>
       <c r="P401" s="0" t="str">
         <f aca="false">IF(AND($N401&lt;&gt;"",$O401&lt;&gt;""), $N401*$O401, "")</f>
@@ -7711,6 +7880,7 @@
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="H402" s="2"/>
+      <c r="I402" s="2"/>
       <c r="K402" s="13"/>
       <c r="P402" s="0" t="str">
         <f aca="false">IF(AND($N402&lt;&gt;"",$O402&lt;&gt;""), $N402*$O402, "")</f>
@@ -7723,6 +7893,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="H403" s="2"/>
+      <c r="I403" s="2"/>
       <c r="K403" s="13"/>
       <c r="P403" s="0" t="str">
         <f aca="false">IF(AND($N403&lt;&gt;"",$O403&lt;&gt;""), $N403*$O403, "")</f>
@@ -7735,6 +7906,7 @@
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="H404" s="2"/>
+      <c r="I404" s="2"/>
       <c r="K404" s="13"/>
       <c r="P404" s="0" t="str">
         <f aca="false">IF(AND($N404&lt;&gt;"",$O404&lt;&gt;""), $N404*$O404, "")</f>
@@ -7747,6 +7919,7 @@
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="H405" s="2"/>
+      <c r="I405" s="2"/>
       <c r="K405" s="13"/>
       <c r="P405" s="0" t="str">
         <f aca="false">IF(AND($N405&lt;&gt;"",$O405&lt;&gt;""), $N405*$O405, "")</f>
@@ -7759,6 +7932,7 @@
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="H406" s="2"/>
+      <c r="I406" s="2"/>
       <c r="K406" s="13"/>
       <c r="P406" s="0" t="str">
         <f aca="false">IF(AND($N406&lt;&gt;"",$O406&lt;&gt;""), $N406*$O406, "")</f>
@@ -7771,6 +7945,7 @@
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="H407" s="2"/>
+      <c r="I407" s="2"/>
       <c r="K407" s="13"/>
       <c r="P407" s="0" t="str">
         <f aca="false">IF(AND($N407&lt;&gt;"",$O407&lt;&gt;""), $N407*$O407, "")</f>
@@ -7783,6 +7958,7 @@
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="H408" s="2"/>
+      <c r="I408" s="2"/>
       <c r="K408" s="13"/>
       <c r="P408" s="0" t="str">
         <f aca="false">IF(AND($N408&lt;&gt;"",$O408&lt;&gt;""), $N408*$O408, "")</f>
@@ -7795,6 +7971,7 @@
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="H409" s="2"/>
+      <c r="I409" s="2"/>
       <c r="K409" s="13"/>
       <c r="P409" s="0" t="str">
         <f aca="false">IF(AND($N409&lt;&gt;"",$O409&lt;&gt;""), $N409*$O409, "")</f>
@@ -7807,6 +7984,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
       <c r="K410" s="13"/>
       <c r="P410" s="0" t="str">
         <f aca="false">IF(AND($N410&lt;&gt;"",$O410&lt;&gt;""), $N410*$O410, "")</f>
@@ -7819,6 +7997,7 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="H411" s="2"/>
+      <c r="I411" s="2"/>
       <c r="K411" s="13"/>
       <c r="P411" s="0" t="str">
         <f aca="false">IF(AND($N411&lt;&gt;"",$O411&lt;&gt;""), $N411*$O411, "")</f>
@@ -7831,6 +8010,7 @@
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="H412" s="2"/>
+      <c r="I412" s="2"/>
       <c r="K412" s="13"/>
       <c r="P412" s="0" t="str">
         <f aca="false">IF(AND($N412&lt;&gt;"",$O412&lt;&gt;""), $N412*$O412, "")</f>
@@ -7843,6 +8023,7 @@
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="H413" s="2"/>
+      <c r="I413" s="2"/>
       <c r="K413" s="13"/>
       <c r="P413" s="0" t="str">
         <f aca="false">IF(AND($N413&lt;&gt;"",$O413&lt;&gt;""), $N413*$O413, "")</f>
@@ -7855,6 +8036,7 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
       <c r="K414" s="13"/>
       <c r="P414" s="0" t="str">
         <f aca="false">IF(AND($N414&lt;&gt;"",$O414&lt;&gt;""), $N414*$O414, "")</f>
@@ -7867,6 +8049,7 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
       <c r="K415" s="13"/>
       <c r="P415" s="0" t="str">
         <f aca="false">IF(AND($N415&lt;&gt;"",$O415&lt;&gt;""), $N415*$O415, "")</f>
@@ -7879,6 +8062,7 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
       <c r="K416" s="13"/>
       <c r="P416" s="0" t="str">
         <f aca="false">IF(AND($N416&lt;&gt;"",$O416&lt;&gt;""), $N416*$O416, "")</f>
@@ -7891,6 +8075,7 @@
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
       <c r="K417" s="13"/>
       <c r="P417" s="0" t="str">
         <f aca="false">IF(AND($N417&lt;&gt;"",$O417&lt;&gt;""), $N417*$O417, "")</f>
@@ -7903,6 +8088,7 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="H418" s="2"/>
+      <c r="I418" s="2"/>
       <c r="K418" s="13"/>
       <c r="P418" s="0" t="str">
         <f aca="false">IF(AND($N418&lt;&gt;"",$O418&lt;&gt;""), $N418*$O418, "")</f>
@@ -7915,6 +8101,7 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
       <c r="K419" s="13"/>
       <c r="P419" s="0" t="str">
         <f aca="false">IF(AND($N419&lt;&gt;"",$O419&lt;&gt;""), $N419*$O419, "")</f>
@@ -7927,6 +8114,7 @@
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="H420" s="2"/>
+      <c r="I420" s="2"/>
       <c r="K420" s="13"/>
       <c r="P420" s="0" t="str">
         <f aca="false">IF(AND($N420&lt;&gt;"",$O420&lt;&gt;""), $N420*$O420, "")</f>
@@ -7939,6 +8127,7 @@
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
       <c r="K421" s="13"/>
       <c r="P421" s="0" t="str">
         <f aca="false">IF(AND($N421&lt;&gt;"",$O421&lt;&gt;""), $N421*$O421, "")</f>
@@ -7951,6 +8140,7 @@
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="H422" s="2"/>
+      <c r="I422" s="2"/>
       <c r="K422" s="13"/>
       <c r="P422" s="0" t="str">
         <f aca="false">IF(AND($N422&lt;&gt;"",$O422&lt;&gt;""), $N422*$O422, "")</f>
@@ -7963,6 +8153,7 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
       <c r="K423" s="13"/>
       <c r="P423" s="0" t="str">
         <f aca="false">IF(AND($N423&lt;&gt;"",$O423&lt;&gt;""), $N423*$O423, "")</f>
@@ -7975,6 +8166,7 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
       <c r="K424" s="13"/>
       <c r="P424" s="0" t="str">
         <f aca="false">IF(AND($N424&lt;&gt;"",$O424&lt;&gt;""), $N424*$O424, "")</f>
@@ -7987,6 +8179,7 @@
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
       <c r="K425" s="13"/>
       <c r="P425" s="0" t="str">
         <f aca="false">IF(AND($N425&lt;&gt;"",$O425&lt;&gt;""), $N425*$O425, "")</f>
@@ -7999,6 +8192,7 @@
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
       <c r="K426" s="13"/>
       <c r="P426" s="0" t="str">
         <f aca="false">IF(AND($N426&lt;&gt;"",$O426&lt;&gt;""), $N426*$O426, "")</f>
@@ -8011,6 +8205,7 @@
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
       <c r="K427" s="13"/>
       <c r="P427" s="0" t="str">
         <f aca="false">IF(AND($N427&lt;&gt;"",$O427&lt;&gt;""), $N427*$O427, "")</f>
@@ -8023,6 +8218,7 @@
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
       <c r="K428" s="13"/>
       <c r="P428" s="0" t="str">
         <f aca="false">IF(AND($N428&lt;&gt;"",$O428&lt;&gt;""), $N428*$O428, "")</f>
@@ -8035,6 +8231,7 @@
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
       <c r="K429" s="13"/>
       <c r="P429" s="0" t="str">
         <f aca="false">IF(AND($N429&lt;&gt;"",$O429&lt;&gt;""), $N429*$O429, "")</f>
@@ -8047,6 +8244,7 @@
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="H430" s="2"/>
+      <c r="I430" s="2"/>
       <c r="K430" s="13"/>
       <c r="P430" s="0" t="str">
         <f aca="false">IF(AND($N430&lt;&gt;"",$O430&lt;&gt;""), $N430*$O430, "")</f>
@@ -8059,6 +8257,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="H431" s="2"/>
+      <c r="I431" s="2"/>
       <c r="K431" s="13"/>
       <c r="P431" s="0" t="str">
         <f aca="false">IF(AND($N431&lt;&gt;"",$O431&lt;&gt;""), $N431*$O431, "")</f>
@@ -8071,6 +8270,7 @@
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="H432" s="2"/>
+      <c r="I432" s="2"/>
       <c r="K432" s="13"/>
       <c r="P432" s="0" t="str">
         <f aca="false">IF(AND($N432&lt;&gt;"",$O432&lt;&gt;""), $N432*$O432, "")</f>
@@ -8083,6 +8283,7 @@
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="H433" s="2"/>
+      <c r="I433" s="2"/>
       <c r="K433" s="13"/>
       <c r="P433" s="0" t="str">
         <f aca="false">IF(AND($N433&lt;&gt;"",$O433&lt;&gt;""), $N433*$O433, "")</f>
@@ -8095,6 +8296,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
       <c r="K434" s="13"/>
       <c r="P434" s="0" t="str">
         <f aca="false">IF(AND($N434&lt;&gt;"",$O434&lt;&gt;""), $N434*$O434, "")</f>
@@ -8107,6 +8309,7 @@
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="H435" s="2"/>
+      <c r="I435" s="2"/>
       <c r="K435" s="13"/>
       <c r="P435" s="0" t="str">
         <f aca="false">IF(AND($N435&lt;&gt;"",$O435&lt;&gt;""), $N435*$O435, "")</f>
@@ -8119,6 +8322,7 @@
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="H436" s="2"/>
+      <c r="I436" s="2"/>
       <c r="K436" s="13"/>
       <c r="P436" s="0" t="str">
         <f aca="false">IF(AND($N436&lt;&gt;"",$O436&lt;&gt;""), $N436*$O436, "")</f>
@@ -8131,6 +8335,7 @@
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="H437" s="2"/>
+      <c r="I437" s="2"/>
       <c r="K437" s="13"/>
       <c r="P437" s="0" t="str">
         <f aca="false">IF(AND($N437&lt;&gt;"",$O437&lt;&gt;""), $N437*$O437, "")</f>
@@ -8143,6 +8348,7 @@
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="H438" s="2"/>
+      <c r="I438" s="2"/>
       <c r="K438" s="13"/>
       <c r="P438" s="0" t="str">
         <f aca="false">IF(AND($N438&lt;&gt;"",$O438&lt;&gt;""), $N438*$O438, "")</f>
@@ -8155,6 +8361,7 @@
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="H439" s="2"/>
+      <c r="I439" s="2"/>
       <c r="K439" s="13"/>
       <c r="P439" s="0" t="str">
         <f aca="false">IF(AND($N439&lt;&gt;"",$O439&lt;&gt;""), $N439*$O439, "")</f>
@@ -8167,6 +8374,7 @@
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
       <c r="K440" s="13"/>
       <c r="P440" s="0" t="str">
         <f aca="false">IF(AND($N440&lt;&gt;"",$O440&lt;&gt;""), $N440*$O440, "")</f>
@@ -8179,6 +8387,7 @@
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="H441" s="2"/>
+      <c r="I441" s="2"/>
       <c r="K441" s="13"/>
       <c r="P441" s="0" t="str">
         <f aca="false">IF(AND($N441&lt;&gt;"",$O441&lt;&gt;""), $N441*$O441, "")</f>
@@ -8191,6 +8400,7 @@
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="H442" s="2"/>
+      <c r="I442" s="2"/>
       <c r="K442" s="13"/>
       <c r="P442" s="0" t="str">
         <f aca="false">IF(AND($N442&lt;&gt;"",$O442&lt;&gt;""), $N442*$O442, "")</f>
@@ -8203,6 +8413,7 @@
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="H443" s="2"/>
+      <c r="I443" s="2"/>
       <c r="K443" s="13"/>
       <c r="P443" s="0" t="str">
         <f aca="false">IF(AND($N443&lt;&gt;"",$O443&lt;&gt;""), $N443*$O443, "")</f>
@@ -8215,6 +8426,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="H444" s="2"/>
+      <c r="I444" s="2"/>
       <c r="K444" s="13"/>
       <c r="P444" s="0" t="str">
         <f aca="false">IF(AND($N444&lt;&gt;"",$O444&lt;&gt;""), $N444*$O444, "")</f>
@@ -8227,6 +8439,7 @@
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="H445" s="2"/>
+      <c r="I445" s="2"/>
       <c r="K445" s="13"/>
       <c r="P445" s="0" t="str">
         <f aca="false">IF(AND($N445&lt;&gt;"",$O445&lt;&gt;""), $N445*$O445, "")</f>
@@ -8239,6 +8452,7 @@
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="H446" s="2"/>
+      <c r="I446" s="2"/>
       <c r="K446" s="13"/>
       <c r="P446" s="0" t="str">
         <f aca="false">IF(AND($N446&lt;&gt;"",$O446&lt;&gt;""), $N446*$O446, "")</f>
@@ -8251,6 +8465,7 @@
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="H447" s="2"/>
+      <c r="I447" s="2"/>
       <c r="K447" s="13"/>
       <c r="P447" s="0" t="str">
         <f aca="false">IF(AND($N447&lt;&gt;"",$O447&lt;&gt;""), $N447*$O447, "")</f>
@@ -8263,6 +8478,7 @@
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="H448" s="2"/>
+      <c r="I448" s="2"/>
       <c r="K448" s="13"/>
       <c r="P448" s="0" t="str">
         <f aca="false">IF(AND($N448&lt;&gt;"",$O448&lt;&gt;""), $N448*$O448, "")</f>
@@ -8275,6 +8491,7 @@
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="H449" s="2"/>
+      <c r="I449" s="2"/>
       <c r="K449" s="13"/>
       <c r="P449" s="0" t="str">
         <f aca="false">IF(AND($N449&lt;&gt;"",$O449&lt;&gt;""), $N449*$O449, "")</f>
@@ -8287,6 +8504,7 @@
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="H450" s="2"/>
+      <c r="I450" s="2"/>
       <c r="K450" s="13"/>
       <c r="P450" s="0" t="str">
         <f aca="false">IF(AND($N450&lt;&gt;"",$O450&lt;&gt;""), $N450*$O450, "")</f>
@@ -8299,6 +8517,7 @@
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="H451" s="2"/>
+      <c r="I451" s="2"/>
       <c r="K451" s="13"/>
       <c r="P451" s="0" t="str">
         <f aca="false">IF(AND($N451&lt;&gt;"",$O451&lt;&gt;""), $N451*$O451, "")</f>
@@ -8311,6 +8530,7 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="H452" s="2"/>
+      <c r="I452" s="2"/>
       <c r="K452" s="13"/>
       <c r="P452" s="0" t="str">
         <f aca="false">IF(AND($N452&lt;&gt;"",$O452&lt;&gt;""), $N452*$O452, "")</f>
@@ -8323,6 +8543,7 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="H453" s="2"/>
+      <c r="I453" s="2"/>
       <c r="K453" s="13"/>
       <c r="P453" s="0" t="str">
         <f aca="false">IF(AND($N453&lt;&gt;"",$O453&lt;&gt;""), $N453*$O453, "")</f>
@@ -8335,6 +8556,7 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="H454" s="2"/>
+      <c r="I454" s="2"/>
       <c r="K454" s="13"/>
       <c r="P454" s="0" t="str">
         <f aca="false">IF(AND($N454&lt;&gt;"",$O454&lt;&gt;""), $N454*$O454, "")</f>
@@ -8347,6 +8569,7 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="H455" s="2"/>
+      <c r="I455" s="2"/>
       <c r="K455" s="13"/>
       <c r="P455" s="0" t="str">
         <f aca="false">IF(AND($N455&lt;&gt;"",$O455&lt;&gt;""), $N455*$O455, "")</f>
@@ -8359,6 +8582,7 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="H456" s="2"/>
+      <c r="I456" s="2"/>
       <c r="K456" s="13"/>
       <c r="P456" s="0" t="str">
         <f aca="false">IF(AND($N456&lt;&gt;"",$O456&lt;&gt;""), $N456*$O456, "")</f>
@@ -8371,6 +8595,7 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="H457" s="2"/>
+      <c r="I457" s="2"/>
       <c r="K457" s="13"/>
       <c r="P457" s="0" t="str">
         <f aca="false">IF(AND($N457&lt;&gt;"",$O457&lt;&gt;""), $N457*$O457, "")</f>
@@ -8383,6 +8608,7 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="H458" s="2"/>
+      <c r="I458" s="2"/>
       <c r="K458" s="13"/>
       <c r="P458" s="0" t="str">
         <f aca="false">IF(AND($N458&lt;&gt;"",$O458&lt;&gt;""), $N458*$O458, "")</f>
@@ -8395,6 +8621,7 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="H459" s="2"/>
+      <c r="I459" s="2"/>
       <c r="K459" s="13"/>
       <c r="P459" s="0" t="str">
         <f aca="false">IF(AND($N459&lt;&gt;"",$O459&lt;&gt;""), $N459*$O459, "")</f>
@@ -8407,6 +8634,7 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
       <c r="K460" s="13"/>
       <c r="P460" s="0" t="str">
         <f aca="false">IF(AND($N460&lt;&gt;"",$O460&lt;&gt;""), $N460*$O460, "")</f>
@@ -8419,6 +8647,7 @@
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="H461" s="2"/>
+      <c r="I461" s="2"/>
       <c r="K461" s="13"/>
       <c r="P461" s="0" t="str">
         <f aca="false">IF(AND($N461&lt;&gt;"",$O461&lt;&gt;""), $N461*$O461, "")</f>
@@ -8431,6 +8660,7 @@
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="H462" s="2"/>
+      <c r="I462" s="2"/>
       <c r="K462" s="13"/>
       <c r="P462" s="0" t="str">
         <f aca="false">IF(AND($N462&lt;&gt;"",$O462&lt;&gt;""), $N462*$O462, "")</f>
@@ -8443,6 +8673,7 @@
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="H463" s="2"/>
+      <c r="I463" s="2"/>
       <c r="K463" s="13"/>
       <c r="P463" s="0" t="str">
         <f aca="false">IF(AND($N463&lt;&gt;"",$O463&lt;&gt;""), $N463*$O463, "")</f>
@@ -8455,6 +8686,7 @@
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="H464" s="2"/>
+      <c r="I464" s="2"/>
       <c r="K464" s="13"/>
       <c r="P464" s="0" t="str">
         <f aca="false">IF(AND($N464&lt;&gt;"",$O464&lt;&gt;""), $N464*$O464, "")</f>
@@ -8467,6 +8699,7 @@
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="H465" s="2"/>
+      <c r="I465" s="2"/>
       <c r="K465" s="13"/>
       <c r="P465" s="0" t="str">
         <f aca="false">IF(AND($N465&lt;&gt;"",$O465&lt;&gt;""), $N465*$O465, "")</f>
@@ -8479,6 +8712,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="H466" s="2"/>
+      <c r="I466" s="2"/>
       <c r="K466" s="13"/>
       <c r="P466" s="0" t="str">
         <f aca="false">IF(AND($N466&lt;&gt;"",$O466&lt;&gt;""), $N466*$O466, "")</f>
@@ -8491,6 +8725,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="H467" s="2"/>
+      <c r="I467" s="2"/>
       <c r="K467" s="13"/>
       <c r="P467" s="0" t="str">
         <f aca="false">IF(AND($N467&lt;&gt;"",$O467&lt;&gt;""), $N467*$O467, "")</f>
@@ -8503,6 +8738,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="H468" s="2"/>
+      <c r="I468" s="2"/>
       <c r="K468" s="13"/>
       <c r="P468" s="0" t="str">
         <f aca="false">IF(AND($N468&lt;&gt;"",$O468&lt;&gt;""), $N468*$O468, "")</f>
@@ -8515,6 +8751,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="H469" s="2"/>
+      <c r="I469" s="2"/>
       <c r="K469" s="13"/>
       <c r="P469" s="0" t="str">
         <f aca="false">IF(AND($N469&lt;&gt;"",$O469&lt;&gt;""), $N469*$O469, "")</f>
@@ -8527,6 +8764,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="H470" s="2"/>
+      <c r="I470" s="2"/>
       <c r="K470" s="13"/>
       <c r="P470" s="0" t="str">
         <f aca="false">IF(AND($N470&lt;&gt;"",$O470&lt;&gt;""), $N470*$O470, "")</f>
@@ -8539,6 +8777,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="H471" s="2"/>
+      <c r="I471" s="2"/>
       <c r="K471" s="13"/>
       <c r="P471" s="0" t="str">
         <f aca="false">IF(AND($N471&lt;&gt;"",$O471&lt;&gt;""), $N471*$O471, "")</f>
@@ -8551,6 +8790,7 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="H472" s="2"/>
+      <c r="I472" s="2"/>
       <c r="K472" s="13"/>
       <c r="P472" s="0" t="str">
         <f aca="false">IF(AND($N472&lt;&gt;"",$O472&lt;&gt;""), $N472*$O472, "")</f>
@@ -8563,6 +8803,7 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="H473" s="2"/>
+      <c r="I473" s="2"/>
       <c r="K473" s="13"/>
       <c r="P473" s="0" t="str">
         <f aca="false">IF(AND($N473&lt;&gt;"",$O473&lt;&gt;""), $N473*$O473, "")</f>
@@ -8575,6 +8816,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="H474" s="2"/>
+      <c r="I474" s="2"/>
       <c r="K474" s="13"/>
       <c r="P474" s="0" t="str">
         <f aca="false">IF(AND($N474&lt;&gt;"",$O474&lt;&gt;""), $N474*$O474, "")</f>
@@ -8587,6 +8829,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="H475" s="2"/>
+      <c r="I475" s="2"/>
       <c r="K475" s="13"/>
       <c r="P475" s="0" t="str">
         <f aca="false">IF(AND($N475&lt;&gt;"",$O475&lt;&gt;""), $N475*$O475, "")</f>
@@ -8599,6 +8842,7 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="H476" s="2"/>
+      <c r="I476" s="2"/>
       <c r="K476" s="13"/>
       <c r="P476" s="0" t="str">
         <f aca="false">IF(AND($N476&lt;&gt;"",$O476&lt;&gt;""), $N476*$O476, "")</f>
@@ -8611,6 +8855,7 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="H477" s="2"/>
+      <c r="I477" s="2"/>
       <c r="K477" s="13"/>
       <c r="P477" s="0" t="str">
         <f aca="false">IF(AND($N477&lt;&gt;"",$O477&lt;&gt;""), $N477*$O477, "")</f>
@@ -8623,6 +8868,7 @@
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="H478" s="2"/>
+      <c r="I478" s="2"/>
       <c r="K478" s="13"/>
       <c r="P478" s="0" t="str">
         <f aca="false">IF(AND($N478&lt;&gt;"",$O478&lt;&gt;""), $N478*$O478, "")</f>
@@ -8635,6 +8881,7 @@
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="H479" s="2"/>
+      <c r="I479" s="2"/>
       <c r="K479" s="13"/>
       <c r="P479" s="0" t="str">
         <f aca="false">IF(AND($N479&lt;&gt;"",$O479&lt;&gt;""), $N479*$O479, "")</f>
@@ -8647,6 +8894,7 @@
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="H480" s="2"/>
+      <c r="I480" s="2"/>
       <c r="K480" s="13"/>
       <c r="P480" s="0" t="str">
         <f aca="false">IF(AND($N480&lt;&gt;"",$O480&lt;&gt;""), $N480*$O480, "")</f>
@@ -8659,6 +8907,7 @@
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="H481" s="2"/>
+      <c r="I481" s="2"/>
       <c r="K481" s="13"/>
       <c r="P481" s="0" t="str">
         <f aca="false">IF(AND($N481&lt;&gt;"",$O481&lt;&gt;""), $N481*$O481, "")</f>
@@ -8671,6 +8920,7 @@
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="H482" s="2"/>
+      <c r="I482" s="2"/>
       <c r="K482" s="13"/>
       <c r="P482" s="0" t="str">
         <f aca="false">IF(AND($N482&lt;&gt;"",$O482&lt;&gt;""), $N482*$O482, "")</f>
@@ -8683,6 +8933,7 @@
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="H483" s="2"/>
+      <c r="I483" s="2"/>
       <c r="K483" s="13"/>
       <c r="P483" s="0" t="str">
         <f aca="false">IF(AND($N483&lt;&gt;"",$O483&lt;&gt;""), $N483*$O483, "")</f>
@@ -8695,6 +8946,7 @@
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="H484" s="2"/>
+      <c r="I484" s="2"/>
       <c r="K484" s="13"/>
       <c r="P484" s="0" t="str">
         <f aca="false">IF(AND($N484&lt;&gt;"",$O484&lt;&gt;""), $N484*$O484, "")</f>
@@ -8707,6 +8959,7 @@
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="H485" s="2"/>
+      <c r="I485" s="2"/>
       <c r="K485" s="13"/>
       <c r="P485" s="0" t="str">
         <f aca="false">IF(AND($N485&lt;&gt;"",$O485&lt;&gt;""), $N485*$O485, "")</f>
@@ -8719,6 +8972,7 @@
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="H486" s="2"/>
+      <c r="I486" s="2"/>
       <c r="K486" s="13"/>
       <c r="P486" s="0" t="str">
         <f aca="false">IF(AND($N486&lt;&gt;"",$O486&lt;&gt;""), $N486*$O486, "")</f>
@@ -8731,6 +8985,7 @@
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="H487" s="2"/>
+      <c r="I487" s="2"/>
       <c r="K487" s="13"/>
       <c r="P487" s="0" t="str">
         <f aca="false">IF(AND($N487&lt;&gt;"",$O487&lt;&gt;""), $N487*$O487, "")</f>
@@ -8743,6 +8998,7 @@
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="H488" s="2"/>
+      <c r="I488" s="2"/>
       <c r="K488" s="13"/>
       <c r="P488" s="0" t="str">
         <f aca="false">IF(AND($N488&lt;&gt;"",$O488&lt;&gt;""), $N488*$O488, "")</f>
@@ -8755,6 +9011,7 @@
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="H489" s="2"/>
+      <c r="I489" s="2"/>
       <c r="K489" s="13"/>
       <c r="P489" s="0" t="str">
         <f aca="false">IF(AND($N489&lt;&gt;"",$O489&lt;&gt;""), $N489*$O489, "")</f>
@@ -8767,6 +9024,7 @@
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="H490" s="2"/>
+      <c r="I490" s="2"/>
       <c r="K490" s="13"/>
       <c r="P490" s="0" t="str">
         <f aca="false">IF(AND($N490&lt;&gt;"",$O490&lt;&gt;""), $N490*$O490, "")</f>
@@ -8779,6 +9037,7 @@
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="H491" s="2"/>
+      <c r="I491" s="2"/>
       <c r="K491" s="13"/>
       <c r="P491" s="0" t="str">
         <f aca="false">IF(AND($N491&lt;&gt;"",$O491&lt;&gt;""), $N491*$O491, "")</f>
@@ -8791,6 +9050,7 @@
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="H492" s="2"/>
+      <c r="I492" s="2"/>
       <c r="K492" s="13"/>
       <c r="P492" s="0" t="str">
         <f aca="false">IF(AND($N492&lt;&gt;"",$O492&lt;&gt;""), $N492*$O492, "")</f>
@@ -8803,6 +9063,7 @@
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="H493" s="2"/>
+      <c r="I493" s="2"/>
       <c r="K493" s="13"/>
       <c r="P493" s="0" t="str">
         <f aca="false">IF(AND($N493&lt;&gt;"",$O493&lt;&gt;""), $N493*$O493, "")</f>
@@ -8815,6 +9076,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="H494" s="2"/>
+      <c r="I494" s="2"/>
       <c r="K494" s="13"/>
       <c r="P494" s="0" t="str">
         <f aca="false">IF(AND($N494&lt;&gt;"",$O494&lt;&gt;""), $N494*$O494, "")</f>
@@ -8827,6 +9089,7 @@
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="H495" s="2"/>
+      <c r="I495" s="2"/>
       <c r="K495" s="13"/>
       <c r="P495" s="0" t="str">
         <f aca="false">IF(AND($N495&lt;&gt;"",$O495&lt;&gt;""), $N495*$O495, "")</f>
@@ -8839,6 +9102,7 @@
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="H496" s="2"/>
+      <c r="I496" s="2"/>
       <c r="K496" s="13"/>
       <c r="P496" s="0" t="str">
         <f aca="false">IF(AND($N496&lt;&gt;"",$O496&lt;&gt;""), $N496*$O496, "")</f>
@@ -8851,6 +9115,7 @@
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="H497" s="2"/>
+      <c r="I497" s="2"/>
       <c r="K497" s="13"/>
       <c r="P497" s="0" t="str">
         <f aca="false">IF(AND($N497&lt;&gt;"",$O497&lt;&gt;""), $N497*$O497, "")</f>
@@ -8863,6 +9128,7 @@
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="H498" s="2"/>
+      <c r="I498" s="2"/>
       <c r="K498" s="13"/>
       <c r="P498" s="0" t="str">
         <f aca="false">IF(AND($N498&lt;&gt;"",$O498&lt;&gt;""), $N498*$O498, "")</f>
@@ -8875,6 +9141,7 @@
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="H499" s="2"/>
+      <c r="I499" s="2"/>
       <c r="K499" s="13"/>
       <c r="P499" s="0" t="str">
         <f aca="false">IF(AND($N499&lt;&gt;"",$O499&lt;&gt;""), $N499*$O499, "")</f>
@@ -8887,6 +9154,7 @@
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="H500" s="2"/>
+      <c r="I500" s="2"/>
       <c r="K500" s="13"/>
       <c r="P500" s="0" t="str">
         <f aca="false">IF(AND($N500&lt;&gt;"",$O500&lt;&gt;""), $N500*$O500, "")</f>
@@ -8899,6 +9167,7 @@
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="H501" s="2"/>
+      <c r="I501" s="2"/>
       <c r="K501" s="13"/>
       <c r="P501" s="0" t="str">
         <f aca="false">IF(AND($N501&lt;&gt;"",$O501&lt;&gt;""), $N501*$O501, "")</f>
@@ -8911,6 +9180,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="H502" s="2"/>
+      <c r="I502" s="2"/>
       <c r="K502" s="13"/>
       <c r="P502" s="0" t="str">
         <f aca="false">IF(AND($N502&lt;&gt;"",$O502&lt;&gt;""), $N502*$O502, "")</f>
@@ -8923,6 +9193,7 @@
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="H503" s="2"/>
+      <c r="I503" s="2"/>
       <c r="K503" s="13"/>
       <c r="P503" s="0" t="str">
         <f aca="false">IF(AND($N503&lt;&gt;"",$O503&lt;&gt;""), $N503*$O503, "")</f>
@@ -8935,6 +9206,7 @@
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="H504" s="2"/>
+      <c r="I504" s="2"/>
       <c r="K504" s="13"/>
       <c r="P504" s="0" t="str">
         <f aca="false">IF(AND($N504&lt;&gt;"",$O504&lt;&gt;""), $N504*$O504, "")</f>
@@ -8947,6 +9219,7 @@
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
       <c r="K505" s="13"/>
       <c r="P505" s="0" t="str">
         <f aca="false">IF(AND($N505&lt;&gt;"",$O505&lt;&gt;""), $N505*$O505, "")</f>
@@ -8959,6 +9232,7 @@
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="H506" s="2"/>
+      <c r="I506" s="2"/>
       <c r="K506" s="13"/>
       <c r="P506" s="0" t="str">
         <f aca="false">IF(AND($N506&lt;&gt;"",$O506&lt;&gt;""), $N506*$O506, "")</f>
@@ -8971,6 +9245,7 @@
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
       <c r="K507" s="13"/>
       <c r="P507" s="0" t="str">
         <f aca="false">IF(AND($N507&lt;&gt;"",$O507&lt;&gt;""), $N507*$O507, "")</f>
@@ -8983,6 +9258,7 @@
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="H508" s="2"/>
+      <c r="I508" s="2"/>
       <c r="K508" s="13"/>
       <c r="P508" s="0" t="str">
         <f aca="false">IF(AND($N508&lt;&gt;"",$O508&lt;&gt;""), $N508*$O508, "")</f>
@@ -8995,6 +9271,7 @@
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="H509" s="2"/>
+      <c r="I509" s="2"/>
       <c r="K509" s="13"/>
       <c r="P509" s="0" t="str">
         <f aca="false">IF(AND($N509&lt;&gt;"",$O509&lt;&gt;""), $N509*$O509, "")</f>
@@ -9007,6 +9284,7 @@
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
       <c r="K510" s="13"/>
       <c r="P510" s="0" t="str">
         <f aca="false">IF(AND($N510&lt;&gt;"",$O510&lt;&gt;""), $N510*$O510, "")</f>
@@ -9019,6 +9297,7 @@
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
       <c r="K511" s="13"/>
       <c r="P511" s="0" t="str">
         <f aca="false">IF(AND($N511&lt;&gt;"",$O511&lt;&gt;""), $N511*$O511, "")</f>
@@ -9031,6 +9310,7 @@
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
       <c r="K512" s="13"/>
       <c r="P512" s="0" t="str">
         <f aca="false">IF(AND($N512&lt;&gt;"",$O512&lt;&gt;""), $N512*$O512, "")</f>
@@ -9043,6 +9323,7 @@
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
       <c r="K513" s="13"/>
       <c r="P513" s="0" t="str">
         <f aca="false">IF(AND($N513&lt;&gt;"",$O513&lt;&gt;""), $N513*$O513, "")</f>
@@ -9055,6 +9336,7 @@
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="H514" s="2"/>
+      <c r="I514" s="2"/>
       <c r="K514" s="13"/>
       <c r="P514" s="0" t="str">
         <f aca="false">IF(AND($N514&lt;&gt;"",$O514&lt;&gt;""), $N514*$O514, "")</f>
@@ -9067,6 +9349,7 @@
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="H515" s="2"/>
+      <c r="I515" s="2"/>
       <c r="K515" s="13"/>
       <c r="P515" s="0" t="str">
         <f aca="false">IF(AND($N515&lt;&gt;"",$O515&lt;&gt;""), $N515*$O515, "")</f>
@@ -9079,6 +9362,7 @@
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="H516" s="2"/>
+      <c r="I516" s="2"/>
       <c r="K516" s="13"/>
       <c r="P516" s="0" t="str">
         <f aca="false">IF(AND($N516&lt;&gt;"",$O516&lt;&gt;""), $N516*$O516, "")</f>
@@ -9091,6 +9375,7 @@
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="H517" s="2"/>
+      <c r="I517" s="2"/>
       <c r="K517" s="13"/>
       <c r="P517" s="0" t="str">
         <f aca="false">IF(AND($N517&lt;&gt;"",$O517&lt;&gt;""), $N517*$O517, "")</f>
@@ -9103,6 +9388,7 @@
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="H518" s="2"/>
+      <c r="I518" s="2"/>
       <c r="K518" s="13"/>
       <c r="P518" s="0" t="str">
         <f aca="false">IF(AND($N518&lt;&gt;"",$O518&lt;&gt;""), $N518*$O518, "")</f>
@@ -9115,6 +9401,7 @@
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="H519" s="2"/>
+      <c r="I519" s="2"/>
       <c r="K519" s="13"/>
       <c r="P519" s="0" t="str">
         <f aca="false">IF(AND($N519&lt;&gt;"",$O519&lt;&gt;""), $N519*$O519, "")</f>
@@ -9127,6 +9414,7 @@
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="H520" s="2"/>
+      <c r="I520" s="2"/>
       <c r="K520" s="13"/>
       <c r="P520" s="0" t="str">
         <f aca="false">IF(AND($N520&lt;&gt;"",$O520&lt;&gt;""), $N520*$O520, "")</f>
@@ -9139,6 +9427,7 @@
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="H521" s="2"/>
+      <c r="I521" s="2"/>
       <c r="K521" s="13"/>
       <c r="P521" s="0" t="str">
         <f aca="false">IF(AND($N521&lt;&gt;"",$O521&lt;&gt;""), $N521*$O521, "")</f>
@@ -9151,6 +9440,7 @@
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="H522" s="2"/>
+      <c r="I522" s="2"/>
       <c r="K522" s="13"/>
       <c r="P522" s="0" t="str">
         <f aca="false">IF(AND($N522&lt;&gt;"",$O522&lt;&gt;""), $N522*$O522, "")</f>
@@ -9163,6 +9453,7 @@
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="H523" s="2"/>
+      <c r="I523" s="2"/>
       <c r="K523" s="13"/>
       <c r="P523" s="0" t="str">
         <f aca="false">IF(AND($N523&lt;&gt;"",$O523&lt;&gt;""), $N523*$O523, "")</f>
@@ -9175,6 +9466,7 @@
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="H524" s="2"/>
+      <c r="I524" s="2"/>
       <c r="K524" s="13"/>
       <c r="P524" s="0" t="str">
         <f aca="false">IF(AND($N524&lt;&gt;"",$O524&lt;&gt;""), $N524*$O524, "")</f>
@@ -9187,6 +9479,7 @@
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="H525" s="2"/>
+      <c r="I525" s="2"/>
       <c r="K525" s="13"/>
       <c r="P525" s="0" t="str">
         <f aca="false">IF(AND($N525&lt;&gt;"",$O525&lt;&gt;""), $N525*$O525, "")</f>
@@ -9199,6 +9492,7 @@
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="H526" s="2"/>
+      <c r="I526" s="2"/>
       <c r="K526" s="13"/>
       <c r="P526" s="0" t="str">
         <f aca="false">IF(AND($N526&lt;&gt;"",$O526&lt;&gt;""), $N526*$O526, "")</f>
@@ -9211,6 +9505,7 @@
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="H527" s="2"/>
+      <c r="I527" s="2"/>
       <c r="K527" s="13"/>
       <c r="P527" s="0" t="str">
         <f aca="false">IF(AND($N527&lt;&gt;"",$O527&lt;&gt;""), $N527*$O527, "")</f>
@@ -9223,6 +9518,7 @@
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="H528" s="2"/>
+      <c r="I528" s="2"/>
       <c r="K528" s="13"/>
       <c r="P528" s="0" t="str">
         <f aca="false">IF(AND($N528&lt;&gt;"",$O528&lt;&gt;""), $N528*$O528, "")</f>
@@ -9235,6 +9531,7 @@
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="H529" s="2"/>
+      <c r="I529" s="2"/>
       <c r="K529" s="13"/>
       <c r="P529" s="0" t="str">
         <f aca="false">IF(AND($N529&lt;&gt;"",$O529&lt;&gt;""), $N529*$O529, "")</f>
@@ -9247,6 +9544,7 @@
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="H530" s="2"/>
+      <c r="I530" s="2"/>
       <c r="K530" s="13"/>
       <c r="P530" s="0" t="str">
         <f aca="false">IF(AND($N530&lt;&gt;"",$O530&lt;&gt;""), $N530*$O530, "")</f>
@@ -9259,6 +9557,7 @@
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="H531" s="2"/>
+      <c r="I531" s="2"/>
       <c r="K531" s="13"/>
       <c r="P531" s="0" t="str">
         <f aca="false">IF(AND($N531&lt;&gt;"",$O531&lt;&gt;""), $N531*$O531, "")</f>
@@ -9271,6 +9570,7 @@
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="H532" s="2"/>
+      <c r="I532" s="2"/>
       <c r="K532" s="13"/>
       <c r="P532" s="0" t="str">
         <f aca="false">IF(AND($N532&lt;&gt;"",$O532&lt;&gt;""), $N532*$O532, "")</f>
@@ -9283,6 +9583,7 @@
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="H533" s="2"/>
+      <c r="I533" s="2"/>
       <c r="K533" s="13"/>
       <c r="P533" s="0" t="str">
         <f aca="false">IF(AND($N533&lt;&gt;"",$O533&lt;&gt;""), $N533*$O533, "")</f>
@@ -9295,6 +9596,7 @@
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="H534" s="2"/>
+      <c r="I534" s="2"/>
       <c r="K534" s="13"/>
       <c r="P534" s="0" t="str">
         <f aca="false">IF(AND($N534&lt;&gt;"",$O534&lt;&gt;""), $N534*$O534, "")</f>
@@ -9307,6 +9609,7 @@
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="H535" s="2"/>
+      <c r="I535" s="2"/>
       <c r="K535" s="13"/>
       <c r="P535" s="0" t="str">
         <f aca="false">IF(AND($N535&lt;&gt;"",$O535&lt;&gt;""), $N535*$O535, "")</f>
@@ -9319,6 +9622,7 @@
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="H536" s="2"/>
+      <c r="I536" s="2"/>
       <c r="K536" s="13"/>
       <c r="P536" s="0" t="str">
         <f aca="false">IF(AND($N536&lt;&gt;"",$O536&lt;&gt;""), $N536*$O536, "")</f>
@@ -9331,6 +9635,7 @@
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="H537" s="2"/>
+      <c r="I537" s="2"/>
       <c r="K537" s="13"/>
       <c r="P537" s="0" t="str">
         <f aca="false">IF(AND($N537&lt;&gt;"",$O537&lt;&gt;""), $N537*$O537, "")</f>
@@ -9343,6 +9648,7 @@
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="H538" s="2"/>
+      <c r="I538" s="2"/>
       <c r="K538" s="13"/>
       <c r="P538" s="0" t="str">
         <f aca="false">IF(AND($N538&lt;&gt;"",$O538&lt;&gt;""), $N538*$O538, "")</f>
@@ -9355,6 +9661,7 @@
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="H539" s="2"/>
+      <c r="I539" s="2"/>
       <c r="K539" s="13"/>
       <c r="P539" s="0" t="str">
         <f aca="false">IF(AND($N539&lt;&gt;"",$O539&lt;&gt;""), $N539*$O539, "")</f>
@@ -9367,6 +9674,7 @@
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="H540" s="2"/>
+      <c r="I540" s="2"/>
       <c r="K540" s="13"/>
       <c r="P540" s="0" t="str">
         <f aca="false">IF(AND($N540&lt;&gt;"",$O540&lt;&gt;""), $N540*$O540, "")</f>
@@ -9379,6 +9687,7 @@
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="H541" s="2"/>
+      <c r="I541" s="2"/>
       <c r="K541" s="13"/>
       <c r="P541" s="0" t="str">
         <f aca="false">IF(AND($N541&lt;&gt;"",$O541&lt;&gt;""), $N541*$O541, "")</f>
@@ -9391,6 +9700,7 @@
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="H542" s="2"/>
+      <c r="I542" s="2"/>
       <c r="K542" s="13"/>
       <c r="P542" s="0" t="str">
         <f aca="false">IF(AND($N542&lt;&gt;"",$O542&lt;&gt;""), $N542*$O542, "")</f>
@@ -9403,6 +9713,7 @@
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="H543" s="2"/>
+      <c r="I543" s="2"/>
       <c r="K543" s="13"/>
       <c r="P543" s="0" t="str">
         <f aca="false">IF(AND($N543&lt;&gt;"",$O543&lt;&gt;""), $N543*$O543, "")</f>
@@ -9415,6 +9726,7 @@
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="H544" s="2"/>
+      <c r="I544" s="2"/>
       <c r="K544" s="13"/>
       <c r="P544" s="0" t="str">
         <f aca="false">IF(AND($N544&lt;&gt;"",$O544&lt;&gt;""), $N544*$O544, "")</f>
@@ -9427,6 +9739,7 @@
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="H545" s="2"/>
+      <c r="I545" s="2"/>
       <c r="K545" s="13"/>
       <c r="P545" s="0" t="str">
         <f aca="false">IF(AND($N545&lt;&gt;"",$O545&lt;&gt;""), $N545*$O545, "")</f>
@@ -9439,6 +9752,7 @@
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="H546" s="2"/>
+      <c r="I546" s="2"/>
       <c r="K546" s="13"/>
       <c r="P546" s="0" t="str">
         <f aca="false">IF(AND($N546&lt;&gt;"",$O546&lt;&gt;""), $N546*$O546, "")</f>
@@ -9451,6 +9765,7 @@
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="H547" s="2"/>
+      <c r="I547" s="2"/>
       <c r="K547" s="13"/>
       <c r="P547" s="0" t="str">
         <f aca="false">IF(AND($N547&lt;&gt;"",$O547&lt;&gt;""), $N547*$O547, "")</f>
@@ -9463,6 +9778,7 @@
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="H548" s="2"/>
+      <c r="I548" s="2"/>
       <c r="K548" s="13"/>
       <c r="P548" s="0" t="str">
         <f aca="false">IF(AND($N548&lt;&gt;"",$O548&lt;&gt;""), $N548*$O548, "")</f>
@@ -9475,6 +9791,7 @@
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="H549" s="2"/>
+      <c r="I549" s="2"/>
       <c r="K549" s="13"/>
       <c r="P549" s="0" t="str">
         <f aca="false">IF(AND($N549&lt;&gt;"",$O549&lt;&gt;""), $N549*$O549, "")</f>
@@ -9487,6 +9804,7 @@
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="H550" s="2"/>
+      <c r="I550" s="2"/>
       <c r="K550" s="13"/>
       <c r="P550" s="0" t="str">
         <f aca="false">IF(AND($N550&lt;&gt;"",$O550&lt;&gt;""), $N550*$O550, "")</f>
@@ -9499,6 +9817,7 @@
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="H551" s="2"/>
+      <c r="I551" s="2"/>
       <c r="K551" s="13"/>
       <c r="P551" s="0" t="str">
         <f aca="false">IF(AND($N551&lt;&gt;"",$O551&lt;&gt;""), $N551*$O551, "")</f>
@@ -9511,6 +9830,7 @@
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="H552" s="2"/>
+      <c r="I552" s="2"/>
       <c r="K552" s="13"/>
       <c r="P552" s="0" t="str">
         <f aca="false">IF(AND($N552&lt;&gt;"",$O552&lt;&gt;""), $N552*$O552, "")</f>
@@ -9523,6 +9843,7 @@
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="H553" s="2"/>
+      <c r="I553" s="2"/>
       <c r="K553" s="13"/>
       <c r="P553" s="0" t="str">
         <f aca="false">IF(AND($N553&lt;&gt;"",$O553&lt;&gt;""), $N553*$O553, "")</f>
@@ -9535,6 +9856,7 @@
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="H554" s="2"/>
+      <c r="I554" s="2"/>
       <c r="K554" s="13"/>
       <c r="P554" s="0" t="str">
         <f aca="false">IF(AND($N554&lt;&gt;"",$O554&lt;&gt;""), $N554*$O554, "")</f>
@@ -9547,6 +9869,7 @@
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="H555" s="2"/>
+      <c r="I555" s="2"/>
       <c r="K555" s="13"/>
       <c r="P555" s="0" t="str">
         <f aca="false">IF(AND($N555&lt;&gt;"",$O555&lt;&gt;""), $N555*$O555, "")</f>
@@ -9559,6 +9882,7 @@
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="H556" s="2"/>
+      <c r="I556" s="2"/>
       <c r="K556" s="13"/>
       <c r="P556" s="0" t="str">
         <f aca="false">IF(AND($N556&lt;&gt;"",$O556&lt;&gt;""), $N556*$O556, "")</f>
@@ -9571,6 +9895,7 @@
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="H557" s="2"/>
+      <c r="I557" s="2"/>
       <c r="K557" s="13"/>
       <c r="P557" s="0" t="str">
         <f aca="false">IF(AND($N557&lt;&gt;"",$O557&lt;&gt;""), $N557*$O557, "")</f>
@@ -9583,6 +9908,7 @@
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="G558" s="2"/>
+      <c r="I558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -9590,6 +9916,7 @@
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="F559" s="2"/>
+      <c r="I559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="2"/>
@@ -9597,6 +9924,7 @@
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="F560" s="2"/>
+      <c r="I560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="2"/>
@@ -9604,6 +9932,7 @@
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="F561" s="2"/>
+      <c r="I561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="2"/>
@@ -9611,6 +9940,7 @@
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="F562" s="2"/>
+      <c r="I562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="2"/>
@@ -9618,6 +9948,7 @@
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
       <c r="F563" s="2"/>
+      <c r="I563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="2"/>
@@ -9625,6 +9956,7 @@
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="F564" s="2"/>
+      <c r="I564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="2"/>
@@ -9632,6 +9964,7 @@
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="F565" s="2"/>
+      <c r="I565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="2"/>
@@ -9639,6 +9972,7 @@
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="F566" s="2"/>
+      <c r="I566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="2"/>
@@ -9646,6 +9980,7 @@
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="F567" s="2"/>
+      <c r="I567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="2"/>
@@ -9653,6 +9988,7 @@
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="F568" s="2"/>
+      <c r="I568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="2"/>
@@ -9660,6 +9996,7 @@
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
       <c r="F569" s="2"/>
+      <c r="I569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="2"/>
@@ -9667,6 +10004,7 @@
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
       <c r="F570" s="2"/>
+      <c r="I570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="2"/>
@@ -9674,6 +10012,7 @@
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
       <c r="F571" s="2"/>
+      <c r="I571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="2"/>
@@ -9681,6 +10020,7 @@
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
       <c r="F572" s="2"/>
+      <c r="I572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="2"/>
@@ -9688,6 +10028,7 @@
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
       <c r="F573" s="2"/>
+      <c r="I573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="2"/>
@@ -9695,6 +10036,7 @@
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
       <c r="F574" s="2"/>
+      <c r="I574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="2"/>
@@ -9702,6 +10044,7 @@
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
       <c r="F575" s="2"/>
+      <c r="I575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="2"/>
@@ -9709,6 +10052,7 @@
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
       <c r="F576" s="2"/>
+      <c r="I576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="2"/>
@@ -9716,6 +10060,7 @@
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
       <c r="F577" s="2"/>
+      <c r="I577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="2"/>
@@ -9723,6 +10068,7 @@
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
       <c r="F578" s="2"/>
+      <c r="I578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="2"/>
@@ -9730,6 +10076,7 @@
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
       <c r="F579" s="2"/>
+      <c r="I579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="2"/>
@@ -9737,6 +10084,7 @@
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
       <c r="F580" s="2"/>
+      <c r="I580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="2"/>
@@ -9744,6 +10092,7 @@
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
       <c r="F581" s="2"/>
+      <c r="I581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="2"/>
@@ -9751,6 +10100,7 @@
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
       <c r="F582" s="2"/>
+      <c r="I582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="2"/>
@@ -9758,6 +10108,7 @@
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
       <c r="F583" s="2"/>
+      <c r="I583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="2"/>
@@ -9765,6 +10116,7 @@
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
       <c r="F584" s="2"/>
+      <c r="I584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="2"/>
@@ -9772,6 +10124,7 @@
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
       <c r="F585" s="2"/>
+      <c r="I585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="2"/>
@@ -9779,6 +10132,7 @@
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
       <c r="F586" s="2"/>
+      <c r="I586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="2"/>
@@ -9786,6 +10140,7 @@
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
       <c r="F587" s="2"/>
+      <c r="I587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="2"/>
@@ -9793,6 +10148,7 @@
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
       <c r="F588" s="2"/>
+      <c r="I588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="2"/>
@@ -9800,6 +10156,7 @@
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
       <c r="F589" s="2"/>
+      <c r="I589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="2"/>
@@ -9807,6 +10164,7 @@
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
       <c r="F590" s="2"/>
+      <c r="I590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="2"/>
@@ -9814,6 +10172,7 @@
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
       <c r="F591" s="2"/>
+      <c r="I591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="2"/>
@@ -9821,6 +10180,7 @@
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
       <c r="F592" s="2"/>
+      <c r="I592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="2"/>
@@ -9828,6 +10188,7 @@
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
       <c r="F593" s="2"/>
+      <c r="I593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="2"/>
@@ -9835,6 +10196,7 @@
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
       <c r="F594" s="2"/>
+      <c r="I594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="2"/>
@@ -9842,6 +10204,7 @@
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
       <c r="F595" s="2"/>
+      <c r="I595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="2"/>
@@ -9849,6 +10212,7 @@
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
       <c r="F596" s="2"/>
+      <c r="I596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="2"/>
@@ -9856,6 +10220,7 @@
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
       <c r="F597" s="2"/>
+      <c r="I597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="2"/>
@@ -9863,6 +10228,7 @@
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
       <c r="F598" s="2"/>
+      <c r="I598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="2"/>
@@ -9870,6 +10236,7 @@
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
       <c r="F599" s="2"/>
+      <c r="I599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="2"/>
@@ -9877,6 +10244,7 @@
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
       <c r="F600" s="2"/>
+      <c r="I600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="2"/>
@@ -9884,6 +10252,7 @@
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
       <c r="F601" s="2"/>
+      <c r="I601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="2"/>
@@ -9891,6 +10260,7 @@
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
       <c r="F602" s="2"/>
+      <c r="I602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="2"/>
@@ -9898,6 +10268,7 @@
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="F603" s="2"/>
+      <c r="I603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="2"/>
@@ -9905,6 +10276,7 @@
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
       <c r="F604" s="2"/>
+      <c r="I604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="2"/>
@@ -9912,6 +10284,7 @@
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
       <c r="F605" s="2"/>
+      <c r="I605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="2"/>
@@ -9919,6 +10292,7 @@
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="F606" s="2"/>
+      <c r="I606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="2"/>
@@ -9926,6 +10300,7 @@
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
       <c r="F607" s="2"/>
+      <c r="I607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="2"/>
@@ -9933,6 +10308,7 @@
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
       <c r="F608" s="2"/>
+      <c r="I608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="2"/>
@@ -9940,6 +10316,7 @@
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
       <c r="F609" s="2"/>
+      <c r="I609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="2"/>
@@ -9947,6 +10324,7 @@
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
       <c r="F610" s="2"/>
+      <c r="I610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="2"/>
@@ -9954,6 +10332,7 @@
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
       <c r="F611" s="2"/>
+      <c r="I611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="2"/>
@@ -9961,6 +10340,7 @@
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
       <c r="F612" s="2"/>
+      <c r="I612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="2"/>
@@ -9968,6 +10348,7 @@
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
       <c r="F613" s="2"/>
+      <c r="I613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="2"/>
@@ -9975,6 +10356,7 @@
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
       <c r="F614" s="2"/>
+      <c r="I614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="2"/>
@@ -9982,6 +10364,7 @@
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
       <c r="F615" s="2"/>
+      <c r="I615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="2"/>
@@ -9989,6 +10372,7 @@
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
       <c r="F616" s="2"/>
+      <c r="I616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="2"/>
@@ -9996,6 +10380,7 @@
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
       <c r="F617" s="2"/>
+      <c r="I617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="2"/>
@@ -10003,6 +10388,7 @@
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
       <c r="F618" s="2"/>
+      <c r="I618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="2"/>
@@ -10010,6 +10396,7 @@
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="F619" s="2"/>
+      <c r="I619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="2"/>
@@ -10017,6 +10404,7 @@
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
       <c r="F620" s="2"/>
+      <c r="I620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="2"/>
@@ -10024,6 +10412,7 @@
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
       <c r="F621" s="2"/>
+      <c r="I621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="2"/>
@@ -10031,6 +10420,7 @@
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
       <c r="F622" s="2"/>
+      <c r="I622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="2"/>
@@ -10038,6 +10428,7 @@
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
       <c r="F623" s="2"/>
+      <c r="I623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="2"/>
@@ -10045,6 +10436,7 @@
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
       <c r="F624" s="2"/>
+      <c r="I624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="2"/>
@@ -10052,6 +10444,7 @@
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
       <c r="F625" s="2"/>
+      <c r="I625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="2"/>
@@ -10059,6 +10452,7 @@
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
       <c r="F626" s="2"/>
+      <c r="I626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="2"/>
@@ -10066,6 +10460,7 @@
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
       <c r="F627" s="2"/>
+      <c r="I627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="2"/>
@@ -10073,6 +10468,7 @@
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
       <c r="F628" s="2"/>
+      <c r="I628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="2"/>
@@ -10080,6 +10476,7 @@
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
       <c r="F629" s="2"/>
+      <c r="I629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="2"/>
@@ -10087,6 +10484,7 @@
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
       <c r="F630" s="2"/>
+      <c r="I630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="2"/>
@@ -10094,6 +10492,7 @@
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
       <c r="F631" s="2"/>
+      <c r="I631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="2"/>
@@ -10101,6 +10500,7 @@
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
       <c r="F632" s="2"/>
+      <c r="I632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="2"/>
@@ -10108,6 +10508,7 @@
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
       <c r="F633" s="2"/>
+      <c r="I633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="2"/>
@@ -10115,6 +10516,7 @@
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
       <c r="F634" s="2"/>
+      <c r="I634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="2"/>
@@ -10122,6 +10524,7 @@
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
       <c r="F635" s="2"/>
+      <c r="I635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="2"/>
@@ -10129,6 +10532,7 @@
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
       <c r="F636" s="2"/>
+      <c r="I636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="2"/>
@@ -10136,6 +10540,7 @@
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
       <c r="F637" s="2"/>
+      <c r="I637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="2"/>
@@ -10143,6 +10548,7 @@
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
       <c r="F638" s="2"/>
+      <c r="I638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="2"/>
@@ -10150,6 +10556,7 @@
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
       <c r="F639" s="2"/>
+      <c r="I639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="2"/>
@@ -10157,6 +10564,7 @@
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
       <c r="F640" s="2"/>
+      <c r="I640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="2"/>
@@ -10164,6 +10572,7 @@
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
       <c r="F641" s="2"/>
+      <c r="I641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="2"/>
@@ -10171,6 +10580,7 @@
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
       <c r="F642" s="2"/>
+      <c r="I642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="2"/>
@@ -10178,6 +10588,7 @@
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
       <c r="F643" s="2"/>
+      <c r="I643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="2"/>
@@ -10185,6 +10596,7 @@
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
       <c r="F644" s="2"/>
+      <c r="I644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="2"/>
@@ -10192,6 +10604,7 @@
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
       <c r="F645" s="2"/>
+      <c r="I645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="2"/>
@@ -10199,6 +10612,7 @@
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
       <c r="F646" s="2"/>
+      <c r="I646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="2"/>
@@ -10206,6 +10620,7 @@
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
       <c r="F647" s="2"/>
+      <c r="I647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="2"/>
@@ -10213,6 +10628,7 @@
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
       <c r="F648" s="2"/>
+      <c r="I648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="2"/>
@@ -10220,6 +10636,7 @@
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
       <c r="F649" s="2"/>
+      <c r="I649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="2"/>
@@ -10227,6 +10644,7 @@
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
       <c r="F650" s="2"/>
+      <c r="I650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="2"/>
@@ -10234,6 +10652,7 @@
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
       <c r="F651" s="2"/>
+      <c r="I651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="2"/>
@@ -10241,6 +10660,7 @@
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
       <c r="F652" s="2"/>
+      <c r="I652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="2"/>
@@ -10248,6 +10668,7 @@
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
       <c r="F653" s="2"/>
+      <c r="I653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="2"/>
@@ -10255,6 +10676,7 @@
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
       <c r="F654" s="2"/>
+      <c r="I654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="2"/>
@@ -10262,6 +10684,7 @@
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
       <c r="F655" s="2"/>
+      <c r="I655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="2"/>
@@ -10269,6 +10692,7 @@
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
       <c r="F656" s="2"/>
+      <c r="I656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="2"/>
@@ -10276,6 +10700,7 @@
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
       <c r="F657" s="2"/>
+      <c r="I657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="2"/>
@@ -10283,6 +10708,7 @@
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
       <c r="F658" s="2"/>
+      <c r="I658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="2"/>
@@ -10290,6 +10716,7 @@
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
       <c r="F659" s="2"/>
+      <c r="I659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="2"/>
@@ -10297,6 +10724,7 @@
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
       <c r="F660" s="2"/>
+      <c r="I660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="2"/>
@@ -10304,6 +10732,7 @@
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
       <c r="F661" s="2"/>
+      <c r="I661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="2"/>
@@ -10311,6 +10740,7 @@
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
       <c r="F662" s="2"/>
+      <c r="I662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="2"/>
@@ -10318,6 +10748,7 @@
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
       <c r="F663" s="2"/>
+      <c r="I663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="2"/>
@@ -10325,6 +10756,7 @@
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
       <c r="F664" s="2"/>
+      <c r="I664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="2"/>
@@ -10332,6 +10764,7 @@
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
       <c r="F665" s="2"/>
+      <c r="I665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="2"/>
@@ -10339,6 +10772,7 @@
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
       <c r="F666" s="2"/>
+      <c r="I666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="2"/>
@@ -10346,6 +10780,7 @@
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
       <c r="F667" s="2"/>
+      <c r="I667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="2"/>
@@ -10353,6 +10788,7 @@
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
       <c r="F668" s="2"/>
+      <c r="I668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="2"/>
@@ -10360,6 +10796,7 @@
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
       <c r="F669" s="2"/>
+      <c r="I669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="2"/>
@@ -10367,6 +10804,7 @@
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
       <c r="F670" s="2"/>
+      <c r="I670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="2"/>
@@ -10374,6 +10812,7 @@
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
       <c r="F671" s="2"/>
+      <c r="I671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="2"/>
@@ -10381,6 +10820,7 @@
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
       <c r="F672" s="2"/>
+      <c r="I672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="2"/>
@@ -10388,6 +10828,7 @@
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
       <c r="F673" s="2"/>
+      <c r="I673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="2"/>
@@ -10395,6 +10836,7 @@
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
       <c r="F674" s="2"/>
+      <c r="I674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="2"/>
@@ -10402,6 +10844,7 @@
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
       <c r="F675" s="2"/>
+      <c r="I675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="2"/>
@@ -10409,6 +10852,7 @@
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
       <c r="F676" s="2"/>
+      <c r="I676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="2"/>
@@ -10416,6 +10860,7 @@
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
       <c r="F677" s="2"/>
+      <c r="I677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="2"/>
@@ -10423,6 +10868,7 @@
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
       <c r="F678" s="2"/>
+      <c r="I678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="2"/>
@@ -10430,6 +10876,7 @@
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
       <c r="F679" s="2"/>
+      <c r="I679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="2"/>
@@ -10437,6 +10884,7 @@
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
       <c r="F680" s="2"/>
+      <c r="I680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="2"/>
@@ -10444,6 +10892,7 @@
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
       <c r="F681" s="2"/>
+      <c r="I681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="2"/>
@@ -10451,6 +10900,7 @@
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
       <c r="F682" s="2"/>
+      <c r="I682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="2"/>
@@ -10458,6 +10908,7 @@
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
       <c r="F683" s="2"/>
+      <c r="I683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="2"/>
@@ -10465,6 +10916,7 @@
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
       <c r="F684" s="2"/>
+      <c r="I684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="2"/>
@@ -10472,6 +10924,7 @@
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
       <c r="F685" s="2"/>
+      <c r="I685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="2"/>
@@ -10479,6 +10932,7 @@
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
       <c r="F686" s="2"/>
+      <c r="I686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="2"/>
@@ -10486,6 +10940,7 @@
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
       <c r="F687" s="2"/>
+      <c r="I687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="2"/>
@@ -10493,6 +10948,7 @@
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
       <c r="F688" s="2"/>
+      <c r="I688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="2"/>
@@ -10500,6 +10956,7 @@
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
       <c r="F689" s="2"/>
+      <c r="I689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="2"/>
@@ -10507,6 +10964,7 @@
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
       <c r="F690" s="2"/>
+      <c r="I690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="2"/>
@@ -10514,6 +10972,7 @@
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
       <c r="F691" s="2"/>
+      <c r="I691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="2"/>
@@ -10521,6 +10980,7 @@
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
       <c r="F692" s="2"/>
+      <c r="I692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="2"/>
@@ -10528,6 +10988,7 @@
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
       <c r="F693" s="2"/>
+      <c r="I693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="2"/>
@@ -10535,6 +10996,7 @@
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
       <c r="F694" s="2"/>
+      <c r="I694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="2"/>
@@ -10542,6 +11004,7 @@
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
       <c r="F695" s="2"/>
+      <c r="I695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="2"/>
@@ -10549,6 +11012,7 @@
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
       <c r="F696" s="2"/>
+      <c r="I696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="2"/>
@@ -10556,6 +11020,7 @@
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
       <c r="F697" s="2"/>
+      <c r="I697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="2"/>
@@ -10563,6 +11028,7 @@
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
       <c r="F698" s="2"/>
+      <c r="I698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="2"/>
@@ -10570,6 +11036,7 @@
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
       <c r="F699" s="2"/>
+      <c r="I699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="2"/>
@@ -10577,6 +11044,7 @@
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
       <c r="F700" s="2"/>
+      <c r="I700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="2"/>
@@ -10584,6 +11052,7 @@
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
       <c r="F701" s="2"/>
+      <c r="I701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="2"/>
@@ -10591,6 +11060,7 @@
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
       <c r="F702" s="2"/>
+      <c r="I702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="2"/>
@@ -10598,6 +11068,7 @@
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
       <c r="F703" s="2"/>
+      <c r="I703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="2"/>
@@ -10605,6 +11076,7 @@
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
       <c r="F704" s="2"/>
+      <c r="I704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="2"/>
@@ -10612,6 +11084,7 @@
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
       <c r="F705" s="2"/>
+      <c r="I705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="2"/>
@@ -10619,6 +11092,7 @@
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
       <c r="F706" s="2"/>
+      <c r="I706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="2"/>
@@ -10626,6 +11100,7 @@
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
       <c r="F707" s="2"/>
+      <c r="I707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="2"/>
@@ -10633,6 +11108,7 @@
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
       <c r="F708" s="2"/>
+      <c r="I708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
@@ -10640,6 +11116,7 @@
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
       <c r="F709" s="2"/>
+      <c r="I709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="2"/>
@@ -10647,6 +11124,7 @@
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
       <c r="F710" s="2"/>
+      <c r="I710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="2"/>
@@ -10654,6 +11132,7 @@
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
       <c r="F711" s="2"/>
+      <c r="I711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="2"/>
@@ -10661,6 +11140,7 @@
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
       <c r="F712" s="2"/>
+      <c r="I712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="2"/>
@@ -10668,6 +11148,7 @@
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
       <c r="F713" s="2"/>
+      <c r="I713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="2"/>
@@ -10675,6 +11156,7 @@
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
       <c r="F714" s="2"/>
+      <c r="I714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="2"/>
@@ -10682,6 +11164,7 @@
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
       <c r="F715" s="2"/>
+      <c r="I715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="2"/>
@@ -10689,6 +11172,7 @@
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
       <c r="F716" s="2"/>
+      <c r="I716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="2"/>
@@ -10696,6 +11180,7 @@
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
       <c r="F717" s="2"/>
+      <c r="I717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="2"/>
@@ -10703,6 +11188,7 @@
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
       <c r="F718" s="2"/>
+      <c r="I718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="2"/>
@@ -10710,6 +11196,7 @@
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
       <c r="F719" s="2"/>
+      <c r="I719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="2"/>
@@ -10717,6 +11204,7 @@
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
       <c r="F720" s="2"/>
+      <c r="I720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="2"/>
@@ -10724,6 +11212,7 @@
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
       <c r="F721" s="2"/>
+      <c r="I721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="2"/>
@@ -10731,6 +11220,7 @@
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
       <c r="F722" s="2"/>
+      <c r="I722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="2"/>
@@ -10738,6 +11228,7 @@
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
       <c r="F723" s="2"/>
+      <c r="I723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="2"/>
@@ -10745,6 +11236,7 @@
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
       <c r="F724" s="2"/>
+      <c r="I724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="2"/>
@@ -10752,6 +11244,7 @@
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
       <c r="F725" s="2"/>
+      <c r="I725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="2"/>
@@ -10759,6 +11252,7 @@
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
       <c r="F726" s="2"/>
+      <c r="I726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="2"/>
@@ -10766,6 +11260,7 @@
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
       <c r="F727" s="2"/>
+      <c r="I727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="2"/>
@@ -10773,6 +11268,7 @@
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
       <c r="F728" s="2"/>
+      <c r="I728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="2"/>
@@ -10780,6 +11276,7 @@
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
       <c r="F729" s="2"/>
+      <c r="I729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="2"/>
@@ -10787,6 +11284,7 @@
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
       <c r="F730" s="2"/>
+      <c r="I730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="2"/>
@@ -10794,6 +11292,7 @@
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
       <c r="F731" s="2"/>
+      <c r="I731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="2"/>
@@ -10801,6 +11300,7 @@
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
       <c r="F732" s="2"/>
+      <c r="I732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="2"/>
@@ -10808,6 +11308,7 @@
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
       <c r="F733" s="2"/>
+      <c r="I733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="2"/>
@@ -10815,6 +11316,7 @@
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
       <c r="F734" s="2"/>
+      <c r="I734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="2"/>
@@ -10822,6 +11324,7 @@
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
       <c r="F735" s="2"/>
+      <c r="I735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="2"/>
@@ -10829,6 +11332,7 @@
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
       <c r="F736" s="2"/>
+      <c r="I736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="2"/>
@@ -10836,6 +11340,7 @@
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
       <c r="F737" s="2"/>
+      <c r="I737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="2"/>
@@ -10843,6 +11348,7 @@
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
       <c r="F738" s="2"/>
+      <c r="I738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="2"/>
@@ -10850,6 +11356,7 @@
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
       <c r="F739" s="2"/>
+      <c r="I739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="2"/>
@@ -10857,6 +11364,7 @@
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
       <c r="F740" s="2"/>
+      <c r="I740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="2"/>
@@ -10864,6 +11372,7 @@
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
       <c r="F741" s="2"/>
+      <c r="I741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="2"/>
@@ -10871,6 +11380,7 @@
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
       <c r="F742" s="2"/>
+      <c r="I742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="2"/>
@@ -10878,6 +11388,7 @@
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
       <c r="F743" s="2"/>
+      <c r="I743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="2"/>
@@ -10885,6 +11396,7 @@
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
       <c r="F744" s="2"/>
+      <c r="I744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="2"/>
@@ -10892,6 +11404,7 @@
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
       <c r="F745" s="2"/>
+      <c r="I745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="2"/>
@@ -10899,6 +11412,7 @@
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
       <c r="F746" s="2"/>
+      <c r="I746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="2"/>
@@ -10906,6 +11420,7 @@
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
       <c r="F747" s="2"/>
+      <c r="I747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="2"/>
@@ -10913,6 +11428,7 @@
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
       <c r="F748" s="2"/>
+      <c r="I748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="2"/>
@@ -10920,6 +11436,7 @@
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
       <c r="F749" s="2"/>
+      <c r="I749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="2"/>
@@ -10927,6 +11444,7 @@
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
       <c r="F750" s="2"/>
+      <c r="I750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="2"/>
@@ -10934,6 +11452,7 @@
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
       <c r="F751" s="2"/>
+      <c r="I751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="2"/>
@@ -10941,6 +11460,7 @@
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
       <c r="F752" s="2"/>
+      <c r="I752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="2"/>
@@ -10948,6 +11468,7 @@
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
       <c r="F753" s="2"/>
+      <c r="I753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="2"/>
@@ -10955,6 +11476,7 @@
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
       <c r="F754" s="2"/>
+      <c r="I754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="2"/>
@@ -10962,6 +11484,7 @@
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
       <c r="F755" s="2"/>
+      <c r="I755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="2"/>
@@ -10969,6 +11492,7 @@
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
       <c r="F756" s="2"/>
+      <c r="I756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="2"/>
@@ -10976,6 +11500,7 @@
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
       <c r="F757" s="2"/>
+      <c r="I757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="2"/>
@@ -10983,6 +11508,7 @@
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
       <c r="F758" s="2"/>
+      <c r="I758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="2"/>
@@ -10990,6 +11516,7 @@
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
       <c r="F759" s="2"/>
+      <c r="I759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="2"/>
@@ -10997,6 +11524,7 @@
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
       <c r="F760" s="2"/>
+      <c r="I760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="2"/>
@@ -11004,6 +11532,7 @@
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
       <c r="F761" s="2"/>
+      <c r="I761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="2"/>
@@ -11011,6 +11540,7 @@
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
       <c r="F762" s="2"/>
+      <c r="I762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="2"/>
@@ -11018,6 +11548,7 @@
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
       <c r="F763" s="2"/>
+      <c r="I763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="2"/>
@@ -11025,6 +11556,7 @@
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
       <c r="F764" s="2"/>
+      <c r="I764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="2"/>
@@ -11032,6 +11564,7 @@
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
       <c r="F765" s="2"/>
+      <c r="I765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="2"/>
@@ -11039,6 +11572,7 @@
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
       <c r="F766" s="2"/>
+      <c r="I766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="2"/>
@@ -11046,6 +11580,7 @@
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
       <c r="F767" s="2"/>
+      <c r="I767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="2"/>
@@ -11053,6 +11588,7 @@
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
       <c r="F768" s="2"/>
+      <c r="I768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="2"/>
@@ -11060,6 +11596,7 @@
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
       <c r="F769" s="2"/>
+      <c r="I769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="2"/>
@@ -11067,6 +11604,7 @@
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
       <c r="F770" s="2"/>
+      <c r="I770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="2"/>
@@ -11074,6 +11612,7 @@
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
       <c r="F771" s="2"/>
+      <c r="I771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="2"/>
@@ -11081,6 +11620,7 @@
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
       <c r="F772" s="2"/>
+      <c r="I772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="2"/>
@@ -11088,6 +11628,7 @@
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
       <c r="F773" s="2"/>
+      <c r="I773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="2"/>
@@ -11095,6 +11636,7 @@
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
       <c r="F774" s="2"/>
+      <c r="I774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="2"/>
@@ -11102,6 +11644,7 @@
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="F775" s="2"/>
+      <c r="I775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="2"/>
@@ -11109,6 +11652,7 @@
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
       <c r="F776" s="2"/>
+      <c r="I776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="2"/>
@@ -11116,6 +11660,7 @@
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
       <c r="F777" s="2"/>
+      <c r="I777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="2"/>
@@ -11123,6 +11668,7 @@
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
       <c r="F778" s="2"/>
+      <c r="I778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="2"/>
@@ -11130,6 +11676,7 @@
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
       <c r="F779" s="2"/>
+      <c r="I779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="2"/>
@@ -11137,6 +11684,7 @@
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
       <c r="F780" s="2"/>
+      <c r="I780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="2"/>
@@ -11144,6 +11692,7 @@
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
       <c r="F781" s="2"/>
+      <c r="I781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="2"/>
@@ -11151,6 +11700,7 @@
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
       <c r="F782" s="2"/>
+      <c r="I782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="2"/>
@@ -11158,6 +11708,7 @@
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
       <c r="F783" s="2"/>
+      <c r="I783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="2"/>
@@ -11165,6 +11716,7 @@
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
       <c r="F784" s="2"/>
+      <c r="I784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="2"/>
@@ -11172,6 +11724,7 @@
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
       <c r="F785" s="2"/>
+      <c r="I785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="2"/>
@@ -11179,6 +11732,7 @@
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
       <c r="F786" s="2"/>
+      <c r="I786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="2"/>
@@ -11186,6 +11740,7 @@
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
       <c r="F787" s="2"/>
+      <c r="I787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="2"/>
@@ -11193,6 +11748,7 @@
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
       <c r="F788" s="2"/>
+      <c r="I788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="2"/>
@@ -11200,6 +11756,7 @@
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
       <c r="F789" s="2"/>
+      <c r="I789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="2"/>
@@ -11207,6 +11764,7 @@
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
       <c r="F790" s="2"/>
+      <c r="I790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="2"/>
@@ -11214,6 +11772,7 @@
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
       <c r="F791" s="2"/>
+      <c r="I791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="2"/>
@@ -11221,6 +11780,7 @@
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
       <c r="F792" s="2"/>
+      <c r="I792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="2"/>
@@ -11228,6 +11788,7 @@
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
       <c r="F793" s="2"/>
+      <c r="I793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="2"/>
@@ -11235,6 +11796,7 @@
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
       <c r="F794" s="2"/>
+      <c r="I794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="2"/>
@@ -11242,6 +11804,7 @@
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
       <c r="F795" s="2"/>
+      <c r="I795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="2"/>
@@ -11249,6 +11812,7 @@
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
       <c r="F796" s="2"/>
+      <c r="I796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="2"/>
@@ -11256,6 +11820,7 @@
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
       <c r="F797" s="2"/>
+      <c r="I797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="2"/>
@@ -11263,6 +11828,7 @@
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
       <c r="F798" s="2"/>
+      <c r="I798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="2"/>
@@ -11270,6 +11836,7 @@
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
       <c r="F799" s="2"/>
+      <c r="I799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="2"/>
@@ -11277,6 +11844,7 @@
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
       <c r="F800" s="2"/>
+      <c r="I800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="2"/>
@@ -11284,6 +11852,7 @@
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
       <c r="F801" s="2"/>
+      <c r="I801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="2"/>
@@ -11291,6 +11860,7 @@
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
       <c r="F802" s="2"/>
+      <c r="I802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="2"/>
@@ -11298,6 +11868,7 @@
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
       <c r="F803" s="2"/>
+      <c r="I803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="2"/>
@@ -11305,6 +11876,7 @@
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
       <c r="F804" s="2"/>
+      <c r="I804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="2"/>
@@ -11312,6 +11884,7 @@
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
       <c r="F805" s="2"/>
+      <c r="I805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="2"/>
@@ -11319,6 +11892,7 @@
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
       <c r="F806" s="2"/>
+      <c r="I806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="2"/>
@@ -11326,6 +11900,7 @@
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
       <c r="F807" s="2"/>
+      <c r="I807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="2"/>
@@ -11333,6 +11908,7 @@
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
       <c r="F808" s="2"/>
+      <c r="I808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="2"/>
@@ -11340,6 +11916,7 @@
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
       <c r="F809" s="2"/>
+      <c r="I809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="2"/>
@@ -11347,6 +11924,7 @@
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
       <c r="F810" s="2"/>
+      <c r="I810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="2"/>
@@ -11354,6 +11932,7 @@
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
       <c r="F811" s="2"/>
+      <c r="I811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="2"/>
@@ -11361,6 +11940,7 @@
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
       <c r="F812" s="2"/>
+      <c r="I812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="2"/>
@@ -11368,6 +11948,7 @@
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
       <c r="F813" s="2"/>
+      <c r="I813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="2"/>
@@ -11375,6 +11956,7 @@
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="F814" s="2"/>
+      <c r="I814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="2"/>
@@ -11382,6 +11964,7 @@
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
       <c r="F815" s="2"/>
+      <c r="I815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="2"/>
@@ -11389,6 +11972,7 @@
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
       <c r="F816" s="2"/>
+      <c r="I816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="2"/>
@@ -11396,6 +11980,7 @@
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
       <c r="F817" s="2"/>
+      <c r="I817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="2"/>
@@ -11403,6 +11988,7 @@
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="F818" s="2"/>
+      <c r="I818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="2"/>
@@ -11410,6 +11996,7 @@
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
       <c r="F819" s="2"/>
+      <c r="I819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="2"/>
@@ -11417,6 +12004,7 @@
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
       <c r="F820" s="2"/>
+      <c r="I820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="2"/>
@@ -11424,6 +12012,7 @@
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
       <c r="F821" s="2"/>
+      <c r="I821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="2"/>
@@ -11431,6 +12020,7 @@
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
       <c r="F822" s="2"/>
+      <c r="I822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="2"/>
@@ -11438,6 +12028,7 @@
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
       <c r="F823" s="2"/>
+      <c r="I823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="2"/>
@@ -11445,6 +12036,7 @@
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
       <c r="F824" s="2"/>
+      <c r="I824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="2"/>
@@ -11452,6 +12044,7 @@
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
       <c r="F825" s="2"/>
+      <c r="I825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="2"/>
@@ -11459,6 +12052,7 @@
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
       <c r="F826" s="2"/>
+      <c r="I826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="2"/>
@@ -11466,6 +12060,7 @@
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
       <c r="F827" s="2"/>
+      <c r="I827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="2"/>
@@ -11473,6 +12068,7 @@
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
       <c r="F828" s="2"/>
+      <c r="I828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="2"/>
@@ -11480,6 +12076,7 @@
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
       <c r="F829" s="2"/>
+      <c r="I829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="2"/>
@@ -11487,6 +12084,7 @@
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
       <c r="F830" s="2"/>
+      <c r="I830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="2"/>
@@ -11494,6 +12092,7 @@
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
       <c r="F831" s="2"/>
+      <c r="I831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="2"/>
@@ -11501,6 +12100,7 @@
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
       <c r="F832" s="2"/>
+      <c r="I832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="2"/>
@@ -11508,6 +12108,7 @@
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
       <c r="F833" s="2"/>
+      <c r="I833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="2"/>
@@ -11515,6 +12116,7 @@
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
       <c r="F834" s="2"/>
+      <c r="I834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="2"/>
@@ -11522,6 +12124,7 @@
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
       <c r="F835" s="2"/>
+      <c r="I835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="2"/>
@@ -11529,6 +12132,7 @@
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
       <c r="F836" s="2"/>
+      <c r="I836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="2"/>
@@ -11536,6 +12140,7 @@
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
       <c r="F837" s="2"/>
+      <c r="I837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="2"/>
@@ -11543,6 +12148,7 @@
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
       <c r="F838" s="2"/>
+      <c r="I838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="2"/>
@@ -11550,6 +12156,7 @@
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
       <c r="F839" s="2"/>
+      <c r="I839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="2"/>
@@ -11557,6 +12164,7 @@
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
       <c r="F840" s="2"/>
+      <c r="I840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="2"/>
@@ -11564,6 +12172,7 @@
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
       <c r="F841" s="2"/>
+      <c r="I841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="2"/>
@@ -11571,6 +12180,7 @@
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
       <c r="F842" s="2"/>
+      <c r="I842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="2"/>
@@ -11578,6 +12188,7 @@
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
       <c r="F843" s="2"/>
+      <c r="I843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="2"/>
@@ -11585,6 +12196,7 @@
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
       <c r="F844" s="2"/>
+      <c r="I844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="2"/>
@@ -11592,6 +12204,7 @@
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
       <c r="F845" s="2"/>
+      <c r="I845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="2"/>
@@ -11599,6 +12212,7 @@
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="F846" s="2"/>
+      <c r="I846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="2"/>
@@ -11606,6 +12220,7 @@
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="F847" s="2"/>
+      <c r="I847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="2"/>
@@ -11613,6 +12228,7 @@
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="F848" s="2"/>
+      <c r="I848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="2"/>
@@ -11620,6 +12236,7 @@
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
       <c r="F849" s="2"/>
+      <c r="I849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="2"/>
@@ -11627,6 +12244,7 @@
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
       <c r="F850" s="2"/>
+      <c r="I850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="2"/>
@@ -11634,6 +12252,7 @@
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
       <c r="F851" s="2"/>
+      <c r="I851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="2"/>
@@ -11641,6 +12260,7 @@
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="F852" s="2"/>
+      <c r="I852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="2"/>
@@ -11648,6 +12268,7 @@
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
       <c r="F853" s="2"/>
+      <c r="I853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="2"/>
@@ -11655,6 +12276,7 @@
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
       <c r="F854" s="2"/>
+      <c r="I854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="2"/>
@@ -11662,6 +12284,7 @@
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
       <c r="F855" s="2"/>
+      <c r="I855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="2"/>
@@ -11669,6 +12292,7 @@
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
       <c r="F856" s="2"/>
+      <c r="I856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="2"/>
@@ -11676,6 +12300,7 @@
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
       <c r="F857" s="2"/>
+      <c r="I857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="2"/>
@@ -11683,6 +12308,7 @@
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
       <c r="F858" s="2"/>
+      <c r="I858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="2"/>
@@ -11690,6 +12316,7 @@
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
       <c r="F859" s="2"/>
+      <c r="I859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="2"/>
@@ -11697,6 +12324,7 @@
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="F860" s="2"/>
+      <c r="I860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="2"/>
@@ -11704,6 +12332,7 @@
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
       <c r="F861" s="2"/>
+      <c r="I861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="2"/>
@@ -11711,6 +12340,7 @@
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="F862" s="2"/>
+      <c r="I862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="2"/>
@@ -11718,6 +12348,7 @@
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
       <c r="F863" s="2"/>
+      <c r="I863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="2"/>
@@ -11725,6 +12356,7 @@
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="F864" s="2"/>
+      <c r="I864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="2"/>
@@ -11732,6 +12364,7 @@
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="F865" s="2"/>
+      <c r="I865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="2"/>
@@ -11739,6 +12372,7 @@
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
       <c r="F866" s="2"/>
+      <c r="I866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="2"/>
@@ -11746,6 +12380,7 @@
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="F867" s="2"/>
+      <c r="I867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="2"/>
@@ -11753,6 +12388,7 @@
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
       <c r="F868" s="2"/>
+      <c r="I868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="2"/>
@@ -11760,6 +12396,7 @@
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
       <c r="F869" s="2"/>
+      <c r="I869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="2"/>
@@ -11767,6 +12404,7 @@
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="F870" s="2"/>
+      <c r="I870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="2"/>
@@ -11774,6 +12412,7 @@
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="F871" s="2"/>
+      <c r="I871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="2"/>
@@ -11781,6 +12420,7 @@
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="F872" s="2"/>
+      <c r="I872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="2"/>
@@ -11788,6 +12428,7 @@
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
       <c r="F873" s="2"/>
+      <c r="I873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="2"/>
@@ -11795,6 +12436,7 @@
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
       <c r="F874" s="2"/>
+      <c r="I874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="2"/>
@@ -11802,6 +12444,7 @@
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
       <c r="F875" s="2"/>
+      <c r="I875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="2"/>
@@ -11809,6 +12452,7 @@
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
       <c r="F876" s="2"/>
+      <c r="I876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="2"/>
@@ -11816,6 +12460,7 @@
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
       <c r="F877" s="2"/>
+      <c r="I877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="2"/>
@@ -11823,6 +12468,7 @@
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
       <c r="F878" s="2"/>
+      <c r="I878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="2"/>
@@ -11830,6 +12476,7 @@
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
       <c r="F879" s="2"/>
+      <c r="I879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="2"/>
@@ -11837,6 +12484,7 @@
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
       <c r="F880" s="2"/>
+      <c r="I880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="2"/>
@@ -11844,6 +12492,7 @@
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
       <c r="F881" s="2"/>
+      <c r="I881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="2"/>
@@ -11851,6 +12500,7 @@
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
       <c r="F882" s="2"/>
+      <c r="I882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="2"/>
@@ -11858,6 +12508,7 @@
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
       <c r="F883" s="2"/>
+      <c r="I883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="2"/>
@@ -11865,6 +12516,7 @@
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
       <c r="F884" s="2"/>
+      <c r="I884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="2"/>
@@ -11872,6 +12524,7 @@
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
       <c r="F885" s="2"/>
+      <c r="I885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="2"/>
@@ -11879,6 +12532,7 @@
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
       <c r="F886" s="2"/>
+      <c r="I886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="2"/>
@@ -11886,6 +12540,7 @@
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
       <c r="F887" s="2"/>
+      <c r="I887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="2"/>
@@ -11893,6 +12548,7 @@
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="F888" s="2"/>
+      <c r="I888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="2"/>
@@ -11900,6 +12556,7 @@
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
       <c r="F889" s="2"/>
+      <c r="I889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="2"/>
@@ -11907,6 +12564,7 @@
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
       <c r="F890" s="2"/>
+      <c r="I890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="2"/>
@@ -11914,6 +12572,7 @@
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
       <c r="F891" s="2"/>
+      <c r="I891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="2"/>
@@ -11921,6 +12580,7 @@
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
       <c r="F892" s="2"/>
+      <c r="I892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="2"/>
@@ -11928,6 +12588,7 @@
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
       <c r="F893" s="2"/>
+      <c r="I893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="2"/>
@@ -11935,6 +12596,7 @@
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
       <c r="F894" s="2"/>
+      <c r="I894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="2"/>
@@ -11942,6 +12604,7 @@
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
       <c r="F895" s="2"/>
+      <c r="I895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="2"/>
@@ -11949,6 +12612,7 @@
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
       <c r="F896" s="2"/>
+      <c r="I896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="2"/>
@@ -11956,6 +12620,7 @@
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
       <c r="F897" s="2"/>
+      <c r="I897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="2"/>
@@ -11963,6 +12628,7 @@
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
       <c r="F898" s="2"/>
+      <c r="I898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="2"/>
@@ -11970,6 +12636,7 @@
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
       <c r="F899" s="2"/>
+      <c r="I899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="2"/>
@@ -11977,6 +12644,7 @@
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
       <c r="F900" s="2"/>
+      <c r="I900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="2"/>
@@ -11984,6 +12652,7 @@
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
       <c r="F901" s="2"/>
+      <c r="I901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="2"/>
@@ -11991,6 +12660,7 @@
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
       <c r="F902" s="2"/>
+      <c r="I902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="2"/>
@@ -11998,6 +12668,7 @@
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
       <c r="F903" s="2"/>
+      <c r="I903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="2"/>
@@ -12005,6 +12676,7 @@
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
       <c r="F904" s="2"/>
+      <c r="I904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="2"/>
@@ -12012,6 +12684,7 @@
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
       <c r="F905" s="2"/>
+      <c r="I905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="2"/>
@@ -12019,6 +12692,7 @@
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
       <c r="F906" s="2"/>
+      <c r="I906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="2"/>
@@ -12026,6 +12700,7 @@
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
       <c r="F907" s="2"/>
+      <c r="I907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="2"/>
@@ -12033,6 +12708,7 @@
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
       <c r="F908" s="2"/>
+      <c r="I908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="2"/>
@@ -12040,6 +12716,7 @@
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
       <c r="F909" s="2"/>
+      <c r="I909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="2"/>
@@ -12047,6 +12724,7 @@
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
       <c r="F910" s="2"/>
+      <c r="I910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="2"/>
@@ -12054,6 +12732,7 @@
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
       <c r="F911" s="2"/>
+      <c r="I911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="2"/>
@@ -12061,6 +12740,7 @@
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
       <c r="F912" s="2"/>
+      <c r="I912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="2"/>
@@ -12068,6 +12748,7 @@
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
       <c r="F913" s="2"/>
+      <c r="I913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="2"/>
@@ -12075,6 +12756,7 @@
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
       <c r="F914" s="2"/>
+      <c r="I914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="2"/>
@@ -12082,6 +12764,7 @@
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
       <c r="F915" s="2"/>
+      <c r="I915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="2"/>
@@ -12089,6 +12772,7 @@
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
       <c r="F916" s="2"/>
+      <c r="I916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="2"/>
@@ -12096,6 +12780,7 @@
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
       <c r="F917" s="2"/>
+      <c r="I917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="2"/>
@@ -12103,6 +12788,7 @@
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
       <c r="F918" s="2"/>
+      <c r="I918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="2"/>
@@ -12110,6 +12796,7 @@
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
       <c r="F919" s="2"/>
+      <c r="I919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="2"/>
@@ -12117,6 +12804,7 @@
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
       <c r="F920" s="2"/>
+      <c r="I920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="2"/>
@@ -12124,6 +12812,7 @@
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
       <c r="F921" s="2"/>
+      <c r="I921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="2"/>
@@ -12131,6 +12820,7 @@
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
       <c r="F922" s="2"/>
+      <c r="I922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="2"/>
@@ -12138,6 +12828,7 @@
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
       <c r="F923" s="2"/>
+      <c r="I923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="2"/>
@@ -12145,6 +12836,7 @@
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
       <c r="F924" s="2"/>
+      <c r="I924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="2"/>
@@ -12152,6 +12844,7 @@
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
       <c r="F925" s="2"/>
+      <c r="I925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="2"/>
@@ -12159,6 +12852,7 @@
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
       <c r="F926" s="2"/>
+      <c r="I926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="2"/>
@@ -12166,6 +12860,7 @@
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
       <c r="F927" s="2"/>
+      <c r="I927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="2"/>
@@ -12173,6 +12868,7 @@
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
       <c r="F928" s="2"/>
+      <c r="I928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="2"/>
@@ -12180,6 +12876,7 @@
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
       <c r="F929" s="2"/>
+      <c r="I929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="2"/>
@@ -12187,6 +12884,7 @@
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
       <c r="F930" s="2"/>
+      <c r="I930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="2"/>
@@ -12194,6 +12892,7 @@
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
       <c r="F931" s="2"/>
+      <c r="I931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="2"/>
@@ -12201,6 +12900,7 @@
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
       <c r="F932" s="2"/>
+      <c r="I932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="2"/>
@@ -12208,6 +12908,7 @@
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
       <c r="F933" s="2"/>
+      <c r="I933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="2"/>
@@ -12215,6 +12916,7 @@
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
       <c r="F934" s="2"/>
+      <c r="I934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="2"/>
@@ -12222,6 +12924,7 @@
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
       <c r="F935" s="2"/>
+      <c r="I935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="2"/>
@@ -12229,6 +12932,7 @@
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
       <c r="F936" s="2"/>
+      <c r="I936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="2"/>
@@ -12236,6 +12940,7 @@
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
       <c r="F937" s="2"/>
+      <c r="I937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="2"/>
@@ -12243,6 +12948,7 @@
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
       <c r="F938" s="2"/>
+      <c r="I938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="2"/>
@@ -12250,6 +12956,7 @@
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
       <c r="F939" s="2"/>
+      <c r="I939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="2"/>
@@ -12257,6 +12964,7 @@
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
       <c r="F940" s="2"/>
+      <c r="I940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="2"/>
@@ -12264,6 +12972,7 @@
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
       <c r="F941" s="2"/>
+      <c r="I941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="2"/>
@@ -12271,6 +12980,7 @@
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
       <c r="F942" s="2"/>
+      <c r="I942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="2"/>
@@ -12278,6 +12988,7 @@
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
       <c r="F943" s="2"/>
+      <c r="I943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="2"/>
@@ -12285,6 +12996,7 @@
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
       <c r="F944" s="2"/>
+      <c r="I944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="2"/>
@@ -12292,6 +13004,7 @@
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
       <c r="F945" s="2"/>
+      <c r="I945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="2"/>
@@ -12299,6 +13012,7 @@
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
       <c r="F946" s="2"/>
+      <c r="I946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="2"/>
@@ -12306,6 +13020,7 @@
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
       <c r="F947" s="2"/>
+      <c r="I947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="2"/>
@@ -12313,6 +13028,7 @@
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
       <c r="F948" s="2"/>
+      <c r="I948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="2"/>
@@ -12320,6 +13036,7 @@
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
       <c r="F949" s="2"/>
+      <c r="I949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="2"/>
@@ -12327,6 +13044,7 @@
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
       <c r="F950" s="2"/>
+      <c r="I950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="2"/>
@@ -12334,6 +13052,7 @@
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
       <c r="F951" s="2"/>
+      <c r="I951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="2"/>
@@ -12341,6 +13060,7 @@
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
       <c r="F952" s="2"/>
+      <c r="I952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="2"/>
@@ -12348,6 +13068,7 @@
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
       <c r="F953" s="2"/>
+      <c r="I953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="2"/>
@@ -12355,6 +13076,7 @@
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
       <c r="F954" s="2"/>
+      <c r="I954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="2"/>
@@ -12362,6 +13084,7 @@
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
       <c r="F955" s="2"/>
+      <c r="I955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="2"/>
@@ -12369,6 +13092,7 @@
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
       <c r="F956" s="2"/>
+      <c r="I956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="2"/>
@@ -12376,6 +13100,7 @@
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
       <c r="F957" s="2"/>
+      <c r="I957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="2"/>
@@ -12383,6 +13108,7 @@
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
       <c r="F958" s="2"/>
+      <c r="I958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="2"/>
@@ -12390,6 +13116,7 @@
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
       <c r="F959" s="2"/>
+      <c r="I959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="2"/>
@@ -12397,6 +13124,7 @@
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
       <c r="F960" s="2"/>
+      <c r="I960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="2"/>
@@ -12404,6 +13132,7 @@
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
       <c r="F961" s="2"/>
+      <c r="I961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="2"/>
@@ -12411,6 +13140,7 @@
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
       <c r="F962" s="2"/>
+      <c r="I962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="2"/>
@@ -12418,6 +13148,7 @@
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
       <c r="F963" s="2"/>
+      <c r="I963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="2"/>
@@ -12425,6 +13156,7 @@
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
       <c r="F964" s="2"/>
+      <c r="I964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="2"/>
@@ -12432,6 +13164,7 @@
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
       <c r="F965" s="2"/>
+      <c r="I965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="2"/>
@@ -12439,6 +13172,7 @@
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
       <c r="F966" s="2"/>
+      <c r="I966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="2"/>
@@ -12446,6 +13180,7 @@
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
       <c r="F967" s="2"/>
+      <c r="I967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="2"/>
@@ -12453,6 +13188,7 @@
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
       <c r="F968" s="2"/>
+      <c r="I968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="2"/>
@@ -12460,6 +13196,7 @@
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
       <c r="F969" s="2"/>
+      <c r="I969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="2"/>
@@ -12467,6 +13204,7 @@
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
       <c r="F970" s="2"/>
+      <c r="I970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="2"/>
@@ -12474,6 +13212,7 @@
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
       <c r="F971" s="2"/>
+      <c r="I971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="2"/>
@@ -12481,6 +13220,7 @@
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
       <c r="F972" s="2"/>
+      <c r="I972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="2"/>
@@ -12488,6 +13228,7 @@
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
       <c r="F973" s="2"/>
+      <c r="I973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="2"/>
@@ -12495,6 +13236,7 @@
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
       <c r="F974" s="2"/>
+      <c r="I974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="2"/>
@@ -12502,6 +13244,7 @@
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
       <c r="F975" s="2"/>
+      <c r="I975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="2"/>
@@ -12509,6 +13252,7 @@
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
       <c r="F976" s="2"/>
+      <c r="I976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="2"/>
@@ -12516,6 +13260,7 @@
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
       <c r="F977" s="2"/>
+      <c r="I977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="2"/>
@@ -12523,6 +13268,7 @@
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
       <c r="F978" s="2"/>
+      <c r="I978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="2"/>
@@ -12530,6 +13276,7 @@
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
       <c r="F979" s="2"/>
+      <c r="I979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="2"/>
@@ -12537,6 +13284,7 @@
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
       <c r="F980" s="2"/>
+      <c r="I980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="2"/>
@@ -12544,6 +13292,7 @@
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
       <c r="F981" s="2"/>
+      <c r="I981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="2"/>
@@ -12551,6 +13300,7 @@
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
       <c r="F982" s="2"/>
+      <c r="I982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="2"/>
@@ -12558,6 +13308,7 @@
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
       <c r="F983" s="2"/>
+      <c r="I983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="2"/>
@@ -12565,6 +13316,7 @@
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
       <c r="F984" s="2"/>
+      <c r="I984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="2"/>
@@ -12572,6 +13324,7 @@
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
       <c r="F985" s="2"/>
+      <c r="I985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="2"/>
@@ -12579,6 +13332,7 @@
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
       <c r="F986" s="2"/>
+      <c r="I986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="2"/>
@@ -12586,6 +13340,7 @@
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
       <c r="F987" s="2"/>
+      <c r="I987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="2"/>
@@ -12593,6 +13348,7 @@
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
       <c r="F988" s="2"/>
+      <c r="I988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="2"/>
@@ -12600,6 +13356,7 @@
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
       <c r="F989" s="2"/>
+      <c r="I989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="2"/>
@@ -12607,6 +13364,7 @@
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
       <c r="F990" s="2"/>
+      <c r="I990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="2"/>
@@ -12614,6 +13372,7 @@
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
       <c r="F991" s="2"/>
+      <c r="I991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="2"/>
@@ -12621,6 +13380,7 @@
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
       <c r="F992" s="2"/>
+      <c r="I992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="2"/>
@@ -12628,6 +13388,7 @@
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
       <c r="F993" s="2"/>
+      <c r="I993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="2"/>
@@ -12635,6 +13396,7 @@
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
       <c r="F994" s="2"/>
+      <c r="I994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="2"/>
@@ -12642,6 +13404,7 @@
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
       <c r="F995" s="2"/>
+      <c r="I995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="2"/>
@@ -12649,6 +13412,7 @@
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
       <c r="F996" s="2"/>
+      <c r="I996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="2"/>
@@ -12656,6 +13420,7 @@
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
       <c r="F997" s="2"/>
+      <c r="I997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="2"/>
@@ -12663,6 +13428,7 @@
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
       <c r="F998" s="2"/>
+      <c r="I998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="2"/>
@@ -12670,6 +13436,7 @@
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
       <c r="F999" s="2"/>
+      <c r="I999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2"/>
@@ -12677,6 +13444,7 @@
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
       <c r="F1000" s="2"/>
+      <c r="I1000" s="2"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="2"/>
@@ -12693,7 +13461,7 @@
       <c r="F1002" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K557" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
@@ -12708,6 +13476,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1000" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I1000" type="list">
+      <formula1>IF($K6="384-well plate",Index!$H$2:$H$385,IF($K6="96-well plate", Index!$F$2:$F$97, ""))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -13062,7 +13834,7 @@
       <c r="A3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -13091,7 +13863,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="13"/>
@@ -13243,7 +14015,7 @@
       <c r="H13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -13467,7 +14239,7 @@
       <c r="H29" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13691,7 +14463,7 @@
       <c r="H45" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="24" t="s">
         <v>180</v>
       </c>
     </row>
@@ -13915,7 +14687,7 @@
       <c r="H61" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I61" s="25" t="s">
+      <c r="I61" s="24" t="s">
         <v>209</v>
       </c>
     </row>
@@ -14139,7 +14911,7 @@
       <c r="H77" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="I77" s="24" t="s">
         <v>238</v>
       </c>
     </row>
@@ -14363,7 +15135,7 @@
       <c r="H93" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="I93" s="25" t="s">
+      <c r="I93" s="24" t="s">
         <v>259</v>
       </c>
     </row>
@@ -14539,7 +15311,7 @@
       <c r="H109" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I109" s="25" t="s">
+      <c r="I109" s="24" t="s">
         <v>272</v>
       </c>
     </row>
@@ -14699,7 +15471,7 @@
       <c r="H125" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I125" s="25" t="s">
+      <c r="I125" s="24" t="s">
         <v>292</v>
       </c>
     </row>
@@ -14859,7 +15631,7 @@
       <c r="H141" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="I141" s="25" t="s">
+      <c r="I141" s="24" t="s">
         <v>308</v>
       </c>
     </row>

--- a/backend/fms_core/static/submission_templates/Normalization_planning_v4_7_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_planning_v4_7_0.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0">
@@ -13479,7 +13479,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I1000" type="list">
-      <formula1>IF($K6="384-well plate",Index!$H$2:$H$385,IF($K6="96-well plate", Index!$F$2:$F$97, ""))</formula1>
+      <formula1>IF($K6="384-well plate",Index!$H$2:$H$385,IF($K6="96-well plate", Index!$F$2:$F$97, Index!$H$2:$H$385))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
